--- a/Predictions/2023-24/Week 14.xlsx
+++ b/Predictions/2023-24/Week 14.xlsx
@@ -1,16 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabo\Dropbox\JavaScript\AI\FPL-predictor\Predictions\2023-24\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69B1CEF-5ECC-4678-B7F5-EC9E8875EE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$AK$2:$AK$196</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$AK$2:$AK$196</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$AN$18:$AN$37</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$AN$4</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$AN$6:$AN$9</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$AN$16</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$AO$18:$AO$37</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$AO$4</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$AO$6:$AO$9</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1363,8 +1445,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1401,59 +1483,76 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AK748" totalsRowShown="0">
-  <autoFilter ref="A1:AK748"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AK748" totalsRowShown="0">
+  <autoFilter ref="A1:AK748" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="36">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AK196">
+    <sortCondition descending="1" ref="AI1:AI748"/>
+  </sortState>
   <tableColumns count="37">
-    <tableColumn id="1" name="First Name"/>
-    <tableColumn id="2" name="Surname"/>
-    <tableColumn id="3" name="Web Name"/>
-    <tableColumn id="4" name="Position"/>
-    <tableColumn id="5" name="GKP"/>
-    <tableColumn id="6" name="DEF"/>
-    <tableColumn id="7" name="MID"/>
-    <tableColumn id="8" name="FWD"/>
-    <tableColumn id="9" name="Team"/>
-    <tableColumn id="10" name="ARS"/>
-    <tableColumn id="11" name="AVL"/>
-    <tableColumn id="12" name="BOU"/>
-    <tableColumn id="13" name="BRE"/>
-    <tableColumn id="14" name="BHA"/>
-    <tableColumn id="15" name="BUR"/>
-    <tableColumn id="16" name="CHE"/>
-    <tableColumn id="17" name="CRY"/>
-    <tableColumn id="18" name="EVE"/>
-    <tableColumn id="19" name="FUL"/>
-    <tableColumn id="20" name="LIV"/>
-    <tableColumn id="21" name="LUT"/>
-    <tableColumn id="22" name="MCI"/>
-    <tableColumn id="23" name="MUN"/>
-    <tableColumn id="24" name="NEW"/>
-    <tableColumn id="25" name="NFO"/>
-    <tableColumn id="26" name="SHU"/>
-    <tableColumn id="27" name="TOT"/>
-    <tableColumn id="28" name="WHU"/>
-    <tableColumn id="29" name="WOL"/>
-    <tableColumn id="30" name="Cost"/>
-    <tableColumn id="31" name="ID"/>
-    <tableColumn id="32" name="ARIMA"/>
-    <tableColumn id="33" name="LSTM"/>
-    <tableColumn id="34" name="PPG"/>
-    <tableColumn id="35" name="NEXT"/>
-    <tableColumn id="36" name="PREV"/>
-    <tableColumn id="37" name="Selected"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="First Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Web Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Position"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GKP"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DEF"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MID"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FWD"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Team"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ARS"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="AVL"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="BOU"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="BRE"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="BHA"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="BUR"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="CHE"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="CRY"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="EVE"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="FUL"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="LIV"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="LUT"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="MCI"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="MUN"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="NEW"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="NFO"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="SHU"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="TOT"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="WHU"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="WOL"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Cost"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="ID"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="ARIMA"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="LSTM"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="PPG"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="NEXT"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="PREV"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Selected"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1491,7 +1590,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1525,6 +1624,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1559,9 +1659,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1733,20 +1834,76 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="525" row="1">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{CEF076F7-C7AA-4E00-B174-3EF4CF9F325D}">
+  <we:reference id="wa104100404" version="3.0.0.1" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104100404" version="3.0.0.1" store="WA104100404" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="UniqueID" value="&quot;20231111701467736621&quot;"/>
+    <we:property name="CQNSHS1WbhwrKw==" value="&quot;&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhVFD0=" value="&quot;HTlw&quot;"/>
+    <we:property name="CQNSHS1Wbh4oOXsBNg==" value="&quot;aw==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjheHz0=" value="&quot;aw==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhACD8=" value="&quot;akUHSGlXf2I=&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhDGTY=" value="&quot;aw==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhCFiI=" value="&quot;ag==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhEFTY=" value="&quot;akUHSQ==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhTDD0=" value="&quot;akUHSGlW&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhdCTY=" value="&quot;ag==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhDCSA=" value="&quot;a1sH&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhCCT4=" value="&quot;ag==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhdCC4=" value="&quot;akUHT2w=&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhdFDM=" value="&quot;aVs=&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhCGCw=" value="&quot;aw==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjheDig=" value="&quot;aA==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhRGTk=" value="&quot;akUHSGg=&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhCHyk=" value="&quot;bw==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhRCCk=" value="&quot;aw==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhDDjs=" value="&quot;ag==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhdHy4=" value="&quot;aA==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhDFTk=" value="&quot;ag==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhcCi4=" value="&quot;ag==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhcCio=" value="&quot;ag==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhXGyo=" value="&quot;akUHSGlXf2I=&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhZCik=" value="&quot;akUOQQ==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhWHzs=" value="&quot;akUHSGlXf2I=&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhZCjM=" value="&quot;aw==&quot;"/>
+    <we:property name="CQNSHS1WbiAmLUANKjhZCj4=" value="&quot;aQ==&quot;"/>
+  </we:properties>
+  <we:bindings>
+    <we:binding id="refEdit" type="matrix" appref="{E2D45E99-FABD-4D3E-8CFC-5D538FB9023D}"/>
+    <we:binding id="Worker" type="matrix" appref="{BC289AB9-F741-4A66-BAA7-B5A01498C2C3}"/>
+  </we:bindings>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO196"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XFD1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="29" width="0" hidden="1" customWidth="1"/>
     <col min="31" max="33" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1859,7 +2016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1963,7 +2120,7 @@
         <v>12.05694736556584</v>
       </c>
       <c r="AI2">
-        <v>2.411389473113169</v>
+        <v>2.4113894731131689</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1976,13 +2133,13 @@
       </c>
       <c r="AN2">
         <f>SUMPRODUCT(Table1[Selected], Table1[PPG])</f>
-        <v>0</v>
+        <v>323.70430447324509</v>
       </c>
       <c r="AO2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2071,22 +2228,22 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE3">
         <v>4</v>
       </c>
       <c r="AF3">
-        <v>18.08510638297872</v>
+        <v>18.085106382978719</v>
       </c>
       <c r="AG3">
         <v>16.25</v>
       </c>
       <c r="AH3">
-        <v>19.02150590533468</v>
+        <v>19.021505905334681</v>
       </c>
       <c r="AI3">
-        <v>3.804301181066936</v>
+        <v>3.8043011810669358</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -2095,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2190,16 +2347,16 @@
         <v>5</v>
       </c>
       <c r="AF4">
-        <v>15.85858585858585</v>
+        <v>15.858585858585849</v>
       </c>
       <c r="AG4">
         <v>17.35542864963697</v>
       </c>
       <c r="AH4">
-        <v>18.35430051056074</v>
+        <v>18.354300510560741</v>
       </c>
       <c r="AI4">
-        <v>3.670860102489497</v>
+        <v>3.6708601024894971</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -2212,21 +2369,21 @@
       </c>
       <c r="AN4">
         <f>SUMPRODUCT(Table1[Selected],Table1[Cost])</f>
-        <v>0</v>
+        <v>99.499999999999986</v>
       </c>
       <c r="AO4">
         <v>101.1</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>307</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -2244,10 +2401,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2283,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -2307,31 +2464,31 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="AE5">
-        <v>6</v>
+        <v>462</v>
       </c>
       <c r="AF5">
-        <v>20.13513513513515</v>
+        <v>32.72727272727272</v>
       </c>
       <c r="AG5">
-        <v>20.29320719990637</v>
+        <v>29.45378193919176</v>
       </c>
       <c r="AH5">
-        <v>22.36444496287267</v>
+        <v>33.529913327970888</v>
       </c>
       <c r="AI5">
-        <v>4.472889022079524</v>
+        <v>8.3491859018341135</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2426,16 +2583,16 @@
         <v>10</v>
       </c>
       <c r="AF6">
-        <v>24.22222222222221</v>
+        <v>24.222222222222211</v>
       </c>
       <c r="AG6">
-        <v>25.14411979787475</v>
+        <v>25.144119797874751</v>
       </c>
       <c r="AH6">
-        <v>27.29855789117106</v>
+        <v>27.298557891171061</v>
       </c>
       <c r="AI6">
-        <v>5.45995508137746</v>
+        <v>5.4599550813774602</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2448,13 +2605,13 @@
       </c>
       <c r="AN6">
         <f>SUMPRODUCT(Table1[Selected],Table1[GKP])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2549,7 +2706,7 @@
         <v>11</v>
       </c>
       <c r="AF7">
-        <v>13.53658536585366</v>
+        <v>13.536585365853661</v>
       </c>
       <c r="AG7">
         <v>13.20894954524843</v>
@@ -2558,7 +2715,7 @@
         <v>14.80138262863397</v>
       </c>
       <c r="AI7">
-        <v>2.957148404999537</v>
+        <v>2.9571484049995371</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -2571,13 +2728,13 @@
       </c>
       <c r="AN7">
         <f>SUMPRODUCT(Table1[Selected],Table1[DEF])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -2666,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AE8">
         <v>12</v>
       </c>
       <c r="AF8">
-        <v>26.45442887057248</v>
+        <v>26.454428870572482</v>
       </c>
       <c r="AG8">
         <v>21.94740245503721</v>
       </c>
       <c r="AH8">
-        <v>26.84148014953279</v>
+        <v>26.841480149532789</v>
       </c>
       <c r="AI8">
-        <v>5.368296735853429</v>
+        <v>5.3682967358534288</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -2694,13 +2851,13 @@
       </c>
       <c r="AN8">
         <f>SUMPRODUCT(Table1[Selected],Table1[MID])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -2789,13 +2946,13 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE9">
         <v>17</v>
       </c>
       <c r="AF9">
-        <v>28.55917368786646</v>
+        <v>28.559173687866458</v>
       </c>
       <c r="AG9">
         <v>20.48705121199195</v>
@@ -2804,7 +2961,7 @@
         <v>27.24824245666677</v>
       </c>
       <c r="AI9">
-        <v>5.549836928133575</v>
+        <v>5.5498369281335753</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -2817,13 +2974,13 @@
       </c>
       <c r="AN9">
         <f>SUMPRODUCT(Table1[Selected],Table1[FWD])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -2921,13 +3078,13 @@
         <v>20.80972800589543</v>
       </c>
       <c r="AG10">
-        <v>17.32758620689655</v>
+        <v>17.327586206896552</v>
       </c>
       <c r="AH10">
         <v>21.14826643691525</v>
       </c>
       <c r="AI10">
-        <v>3.442038223062909</v>
+        <v>3.4420382230629092</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -2936,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -3040,7 +3197,7 @@
         <v>14.56755782216892</v>
       </c>
       <c r="AI11">
-        <v>2.913511564433785</v>
+        <v>2.9135115644337848</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -3053,10 +3210,10 @@
       </c>
       <c r="AN11">
         <f>SUMPRODUCT(Table1[Selected], -- (Table1[PREV] = 0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -3151,16 +3308,16 @@
         <v>22</v>
       </c>
       <c r="AF12">
-        <v>19.25743090004931</v>
+        <v>19.257430900049311</v>
       </c>
       <c r="AG12">
-        <v>19.98043408994368</v>
+        <v>19.980434089943682</v>
       </c>
       <c r="AH12">
-        <v>21.69785869258097</v>
+        <v>21.697858692580969</v>
       </c>
       <c r="AI12">
-        <v>4.17726477887631</v>
+        <v>4.1772647788763102</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -3175,7 +3332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -3270,16 +3427,16 @@
         <v>23</v>
       </c>
       <c r="AF13">
-        <v>20.93750000000001</v>
+        <v>20.937500000000011</v>
       </c>
       <c r="AG13">
-        <v>16.82432432432432</v>
+        <v>16.824324324324319</v>
       </c>
       <c r="AH13">
-        <v>20.94942506897254</v>
+        <v>20.949425068972541</v>
       </c>
       <c r="AI13">
-        <v>4.189885013794508</v>
+        <v>4.1898850137945081</v>
       </c>
       <c r="AJ13">
         <v>0</v>
@@ -3288,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -3377,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AE14">
         <v>25</v>
       </c>
       <c r="AF14">
-        <v>17.00000000000001</v>
+        <v>17.000000000000011</v>
       </c>
       <c r="AG14">
         <v>15.56962025316456</v>
       </c>
       <c r="AH14">
-        <v>18.03905876420693</v>
+        <v>18.039058764206931</v>
       </c>
       <c r="AI14">
-        <v>3.607811752841387</v>
+        <v>3.6078117528413869</v>
       </c>
       <c r="AJ14">
         <v>0</v>
@@ -3408,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -3497,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE15">
         <v>26</v>
@@ -3509,10 +3666,10 @@
         <v>17.1769015267441</v>
       </c>
       <c r="AH15">
-        <v>20.60259155359651</v>
+        <v>20.602591553596511</v>
       </c>
       <c r="AI15">
-        <v>4.067090068863548</v>
+        <v>4.0670900688635481</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -3521,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -3616,16 +3773,16 @@
         <v>27</v>
       </c>
       <c r="AF16">
-        <v>14.25284821947995</v>
+        <v>14.252848219479951</v>
       </c>
       <c r="AG16">
-        <v>14.05405405405405</v>
+        <v>14.054054054054051</v>
       </c>
       <c r="AH16">
         <v>15.66338100515912</v>
       </c>
       <c r="AI16">
-        <v>3.130626215904402</v>
+        <v>3.1306262159044018</v>
       </c>
       <c r="AJ16">
         <v>0</v>
@@ -3638,10 +3795,13 @@
       </c>
       <c r="AN16">
         <f>AN2-AN14*5</f>
-        <v>0</v>
+        <v>323.70430447324509</v>
+      </c>
+      <c r="AO16">
+        <v>309.39400000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -3742,10 +3902,10 @@
         <v>14.11458333333333</v>
       </c>
       <c r="AH17">
-        <v>15.52812234047508</v>
+        <v>15.528122340475081</v>
       </c>
       <c r="AI17">
-        <v>3.105624468095016</v>
+        <v>3.1056244680950158</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -3754,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -3855,10 +4015,10 @@
         <v>13.83333333333333</v>
       </c>
       <c r="AH18">
-        <v>14.61687433798054</v>
+        <v>14.616874337980541</v>
       </c>
       <c r="AI18">
-        <v>2.923374867596107</v>
+        <v>2.9233748675961069</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -3871,13 +4031,13 @@
       </c>
       <c r="AN18">
         <f>SUMPRODUCT(Table1[Selected],Table1[ARS])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -3975,13 +4135,13 @@
         <v>12.2715111471153</v>
       </c>
       <c r="AG19">
-        <v>16.78565280004952</v>
+        <v>16.785652800049519</v>
       </c>
       <c r="AH19">
-        <v>15.53128501575184</v>
+        <v>15.531285015751839</v>
       </c>
       <c r="AI19">
-        <v>3.135501929334228</v>
+        <v>3.1355019293342279</v>
       </c>
       <c r="AJ19">
         <v>0</v>
@@ -3994,13 +4154,13 @@
       </c>
       <c r="AN19">
         <f>SUMPRODUCT(Table1[Selected],Table1[AVL])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -4095,13 +4255,13 @@
         <v>44</v>
       </c>
       <c r="AF20">
-        <v>29.20097122704427</v>
+        <v>29.200971227044271</v>
       </c>
       <c r="AG20">
         <v>13.68534482758621</v>
       </c>
       <c r="AH20">
-        <v>24.4330244988059</v>
+        <v>24.433024498805899</v>
       </c>
       <c r="AI20">
         <v>4.830103747522184</v>
@@ -4123,7 +4283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -4218,16 +4378,16 @@
         <v>49</v>
       </c>
       <c r="AF21">
-        <v>14.14814814814815</v>
+        <v>14.148148148148151</v>
       </c>
       <c r="AG21">
-        <v>14.32242990654206</v>
+        <v>14.322429906542061</v>
       </c>
       <c r="AH21">
-        <v>15.50701481830242</v>
+        <v>15.507014818302419</v>
       </c>
       <c r="AI21">
-        <v>3.101402963660483</v>
+        <v>3.1014029636604832</v>
       </c>
       <c r="AJ21">
         <v>0</v>
@@ -4240,13 +4400,13 @@
       </c>
       <c r="AN21">
         <f>SUMPRODUCT(Table1[Selected],Table1[BRE])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -4335,22 +4495,22 @@
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE22">
         <v>50</v>
       </c>
       <c r="AF22">
-        <v>15.10317944936376</v>
+        <v>15.103179449363759</v>
       </c>
       <c r="AG22">
         <v>15.70683825026474</v>
       </c>
       <c r="AH22">
-        <v>16.75297479484514</v>
+        <v>16.752974794845141</v>
       </c>
       <c r="AI22">
-        <v>3.279174707571155</v>
+        <v>3.2791747075711548</v>
       </c>
       <c r="AJ22">
         <v>0</v>
@@ -4369,7 +4529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -4492,7 +4652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -4587,16 +4747,18 @@
         <v>60</v>
       </c>
       <c r="AF24">
-        <v>22.67241379310344</v>
+        <v>22.672413793103441</v>
       </c>
       <c r="AG24">
-        <v>20.92353596005819</v>
+        <v>20.923535960058189</v>
       </c>
       <c r="AH24">
-        <v>23.88255924577381</v>
+        <f>23.8825592457738*0.5</f>
+        <v>11.941279622886899</v>
       </c>
       <c r="AI24">
-        <v>4.772939718627595</v>
+        <f>4.77293971862759*0.5</f>
+        <v>2.3864698593137952</v>
       </c>
       <c r="AJ24">
         <v>1</v>
@@ -4609,33 +4771,33 @@
       </c>
       <c r="AN24">
         <f>SUMPRODUCT(Table1[Selected],Table1[CHE])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -4704,28 +4866,28 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE25">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF25">
-        <v>17.6923076923077</v>
+        <v>27.25504548129695</v>
       </c>
       <c r="AG25">
-        <v>15.27777777777778</v>
+        <v>21.830694828903599</v>
       </c>
       <c r="AH25">
-        <v>18.13588106929992</v>
+        <v>27.125196519884721</v>
       </c>
       <c r="AI25">
-        <v>3.627176213859984</v>
+        <v>6.6466425344071389</v>
       </c>
       <c r="AJ25">
         <v>1</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25" t="s">
         <v>18</v>
@@ -4738,15 +4900,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -4764,13 +4926,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4785,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -4827,28 +4989,28 @@
         <v>0</v>
       </c>
       <c r="AD26">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE26">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="AF26">
-        <v>27.25504548129695</v>
+        <v>23.000023712819988</v>
       </c>
       <c r="AG26">
-        <v>21.8306948289036</v>
+        <v>29.672428871897729</v>
       </c>
       <c r="AH26">
-        <v>27.12519651988472</v>
+        <v>32.925592053155881</v>
       </c>
       <c r="AI26">
-        <v>6.646642534407139</v>
+        <v>6.5853212930561691</v>
       </c>
       <c r="AJ26">
         <v>1</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" t="s">
         <v>19</v>
@@ -4861,7 +5023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -4959,13 +5121,13 @@
         <v>12.76980901082946</v>
       </c>
       <c r="AG27">
-        <v>13.70588235294118</v>
+        <v>13.705882352941179</v>
       </c>
       <c r="AH27">
         <v>14.82047489952639</v>
       </c>
       <c r="AI27">
-        <v>2.742911795267791</v>
+        <v>2.7429117952677911</v>
       </c>
       <c r="AJ27">
         <v>0</v>
@@ -4984,7 +5146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -5079,16 +5241,16 @@
         <v>72</v>
       </c>
       <c r="AF28">
-        <v>9.999999999999996</v>
+        <v>9.9999999999999964</v>
       </c>
       <c r="AG28">
-        <v>12.13235294117647</v>
+        <v>12.132352941176469</v>
       </c>
       <c r="AH28">
         <v>12.38451912843375</v>
       </c>
       <c r="AI28">
-        <v>2.47690382568675</v>
+        <v>2.4769038256867502</v>
       </c>
       <c r="AJ28">
         <v>0</v>
@@ -5107,7 +5269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -5202,7 +5364,7 @@
         <v>77</v>
       </c>
       <c r="AF29">
-        <v>11.55788622549889</v>
+        <v>11.557886225498891</v>
       </c>
       <c r="AG29">
         <v>13.16666666666667</v>
@@ -5211,7 +5373,7 @@
         <v>13.8376943933331</v>
       </c>
       <c r="AI29">
-        <v>2.761513442222195</v>
+        <v>2.7615134422221952</v>
       </c>
       <c r="AJ29">
         <v>0</v>
@@ -5230,7 +5392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -5319,19 +5481,19 @@
         <v>0</v>
       </c>
       <c r="AD30">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AE30">
         <v>79</v>
       </c>
       <c r="AF30">
-        <v>34.74135444772951</v>
+        <v>34.741354447729513</v>
       </c>
       <c r="AG30">
-        <v>12.14285714285714</v>
+        <v>12.142857142857141</v>
       </c>
       <c r="AH30">
-        <v>26.32835819362291</v>
+        <v>26.328358193622911</v>
       </c>
       <c r="AI30">
         <v>6.314480131825464</v>
@@ -5347,13 +5509,13 @@
       </c>
       <c r="AN30">
         <f>SUMPRODUCT(Table1[Selected],Table1[MCI])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -5448,16 +5610,16 @@
         <v>84</v>
       </c>
       <c r="AF31">
-        <v>17.98551050477706</v>
+        <v>17.985510504777061</v>
       </c>
       <c r="AG31">
-        <v>32.0543479760241</v>
+        <v>32.054347976024097</v>
       </c>
       <c r="AH31">
-        <v>27.96871990850834</v>
+        <v>27.968719908508341</v>
       </c>
       <c r="AI31">
-        <v>4.555874700485322</v>
+        <v>4.5558747004853224</v>
       </c>
       <c r="AJ31">
         <v>0</v>
@@ -5476,7 +5638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -5565,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AE32">
         <v>89</v>
@@ -5580,7 +5742,7 @@
         <v>13.94937072647587</v>
       </c>
       <c r="AI32">
-        <v>2.789874145295174</v>
+        <v>2.7898741452951739</v>
       </c>
       <c r="AJ32">
         <v>0</v>
@@ -5593,13 +5755,13 @@
       </c>
       <c r="AN32">
         <f>SUMPRODUCT(Table1[Selected],Table1[NEW])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -5694,16 +5856,16 @@
         <v>92</v>
       </c>
       <c r="AF33">
-        <v>20.23570929301381</v>
+        <v>20.235709293013809</v>
       </c>
       <c r="AG33">
         <v>13.97058823529412</v>
       </c>
       <c r="AH33">
-        <v>19.1736707199461</v>
+        <v>19.173670719946099</v>
       </c>
       <c r="AI33">
-        <v>2.989152995675899</v>
+        <v>2.9891529956758989</v>
       </c>
       <c r="AJ33">
         <v>0</v>
@@ -5722,7 +5884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -5817,16 +5979,16 @@
         <v>93</v>
       </c>
       <c r="AF34">
-        <v>24.35438570041355</v>
+        <v>24.354385700413552</v>
       </c>
       <c r="AG34">
-        <v>19.37616345138242</v>
+        <v>19.376163451382421</v>
       </c>
       <c r="AH34">
         <v>24.50184728475379</v>
       </c>
       <c r="AI34">
-        <v>6.851317077372612</v>
+        <v>6.8513170773726122</v>
       </c>
       <c r="AJ34">
         <v>0</v>
@@ -5845,15 +6007,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -5871,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -5883,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -5892,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -5934,41 +6096,41 @@
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AE35">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="AF35">
-        <v>12</v>
+        <v>18.283825115238692</v>
       </c>
       <c r="AG35">
-        <v>12.11764705882353</v>
+        <v>16.5625</v>
       </c>
       <c r="AH35">
-        <v>12.84274596738996</v>
+        <v>21.320778261916001</v>
       </c>
       <c r="AI35">
-        <v>3.210686491847489</v>
+        <v>5.4629166715411781</v>
       </c>
       <c r="AJ35">
         <v>1</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" t="s">
         <v>28</v>
       </c>
       <c r="AN35">
         <f>SUMPRODUCT(Table1[Selected],Table1[TOT])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -6069,10 +6231,10 @@
         <v>10.13953488372093</v>
       </c>
       <c r="AH36">
-        <v>10.82182921862844</v>
+        <v>10.821829218628441</v>
       </c>
       <c r="AI36">
-        <v>2.70545730465711</v>
+        <v>2.7054573046571102</v>
       </c>
       <c r="AJ36">
         <v>0</v>
@@ -6085,13 +6247,13 @@
       </c>
       <c r="AN36">
         <f>SUMPRODUCT(Table1[Selected],Table1[WHU])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -6186,16 +6348,16 @@
         <v>115</v>
       </c>
       <c r="AF37">
-        <v>12.33333333333334</v>
+        <v>12.333333333333339</v>
       </c>
       <c r="AG37">
-        <v>11.85843470426573</v>
+        <v>11.858434704265729</v>
       </c>
       <c r="AH37">
-        <v>12.8848377313488</v>
+        <v>12.884837731348799</v>
       </c>
       <c r="AI37">
-        <v>3.243771426605315</v>
+        <v>3.2437714266053148</v>
       </c>
       <c r="AJ37">
         <v>0</v>
@@ -6208,13 +6370,13 @@
       </c>
       <c r="AN37">
         <f>SUMPRODUCT(Table1[Selected],Table1[WOL])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -6303,22 +6465,22 @@
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AE38">
         <v>118</v>
       </c>
       <c r="AF38">
-        <v>9.45454545454545</v>
+        <v>9.4545454545454497</v>
       </c>
       <c r="AG38">
         <v>10.4</v>
       </c>
       <c r="AH38">
-        <v>10.56887406642027</v>
+        <v>10.568874066420269</v>
       </c>
       <c r="AI38">
-        <v>2.642218516605067</v>
+        <v>2.6422185166050669</v>
       </c>
       <c r="AJ38">
         <v>0</v>
@@ -6327,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -6428,7 +6590,7 @@
         <v>10.83677541562052</v>
       </c>
       <c r="AH39">
-        <v>11.05383216578572</v>
+        <v>11.053832165785719</v>
       </c>
       <c r="AI39">
         <v>2.930050912539599</v>
@@ -6440,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -6535,7 +6697,7 @@
         <v>120</v>
       </c>
       <c r="AF40">
-        <v>16.32085767369344</v>
+        <v>16.320857673693439</v>
       </c>
       <c r="AG40">
         <v>11</v>
@@ -6553,33 +6715,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>363</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>363</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -6591,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -6624,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -6645,28 +6807,28 @@
         <v>7</v>
       </c>
       <c r="AE41">
-        <v>122</v>
+        <v>547</v>
       </c>
       <c r="AF41">
-        <v>16</v>
+        <v>24.089723277103339</v>
       </c>
       <c r="AG41">
-        <v>12.30769230769231</v>
+        <v>18.984375</v>
       </c>
       <c r="AH41">
-        <v>15.09090155926676</v>
+        <v>27.493566731457179</v>
       </c>
       <c r="AI41">
-        <v>3.77272538981669</v>
+        <v>5.1662789207154276</v>
       </c>
       <c r="AJ41">
         <v>1</v>
       </c>
       <c r="AK41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -6761,7 +6923,7 @@
         <v>124</v>
       </c>
       <c r="AF42">
-        <v>12.12121212121212</v>
+        <v>12.121212121212119</v>
       </c>
       <c r="AG42">
         <v>11.80769230769231</v>
@@ -6779,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -6868,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="AD43">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AE43">
         <v>126</v>
@@ -6877,13 +7039,13 @@
         <v>13.12676056338028</v>
       </c>
       <c r="AG43">
-        <v>11.86785565537368</v>
+        <v>11.867855655373679</v>
       </c>
       <c r="AH43">
         <v>13.31584214380028</v>
       </c>
       <c r="AI43">
-        <v>3.333203634274691</v>
+        <v>3.3332036342746911</v>
       </c>
       <c r="AJ43">
         <v>0</v>
@@ -6892,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -6990,13 +7152,13 @@
         <v>12.7406261600985</v>
       </c>
       <c r="AG44">
-        <v>11.23333333333333</v>
+        <v>11.233333333333331</v>
       </c>
       <c r="AH44">
         <v>12.77341469012978</v>
       </c>
       <c r="AI44">
-        <v>3.134698760924287</v>
+        <v>3.1346987609242869</v>
       </c>
       <c r="AJ44">
         <v>0</v>
@@ -7005,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -7094,22 +7256,22 @@
         <v>0</v>
       </c>
       <c r="AD45">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE45">
         <v>135</v>
       </c>
       <c r="AF45">
-        <v>7.755327804490385</v>
+        <v>7.7553278044903848</v>
       </c>
       <c r="AG45">
-        <v>12.539041452795</v>
+        <v>12.539041452795001</v>
       </c>
       <c r="AH45">
         <v>10.78611743788287</v>
       </c>
       <c r="AI45">
-        <v>2.696385965882339</v>
+        <v>2.6963859658823388</v>
       </c>
       <c r="AJ45">
         <v>0</v>
@@ -7118,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -7219,10 +7381,10 @@
         <v>15.9375</v>
       </c>
       <c r="AH46">
-        <v>16.56202900121635</v>
+        <v>16.562029001216349</v>
       </c>
       <c r="AI46">
-        <v>1.882164494946503</v>
+        <v>1.8821644949465031</v>
       </c>
       <c r="AJ46">
         <v>0</v>
@@ -7231,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -7329,13 +7491,13 @@
         <v>16.37931034482758</v>
       </c>
       <c r="AG47">
-        <v>17.04571466150617</v>
+        <v>17.045714661506171</v>
       </c>
       <c r="AH47">
-        <v>17.77174732068453</v>
+        <v>17.771747320684529</v>
       </c>
       <c r="AI47">
-        <v>3.554376442792049</v>
+        <v>3.5543764427920488</v>
       </c>
       <c r="AJ47">
         <v>0</v>
@@ -7344,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>140</v>
       </c>
@@ -7433,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="AD48">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE48">
         <v>152</v>
@@ -7445,10 +7607,10 @@
         <v>11.93181818181818</v>
       </c>
       <c r="AH48">
-        <v>11.7191527761493</v>
+        <v>11.719152776149301</v>
       </c>
       <c r="AI48">
-        <v>2.457623021454581</v>
+        <v>2.4576230214545811</v>
       </c>
       <c r="AJ48">
         <v>0</v>
@@ -7457,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -7552,13 +7714,13 @@
         <v>153</v>
       </c>
       <c r="AF49">
-        <v>17.37179487179486</v>
+        <v>17.371794871794862</v>
       </c>
       <c r="AG49">
-        <v>15.76612903225806</v>
+        <v>15.766129032258061</v>
       </c>
       <c r="AH49">
-        <v>17.65738629942267</v>
+        <v>17.657386299422669</v>
       </c>
       <c r="AI49">
         <v>3.531477259884535</v>
@@ -7570,7 +7732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -7665,13 +7827,13 @@
         <v>154</v>
       </c>
       <c r="AF50">
-        <v>8.259255553531258</v>
+        <v>8.2592555535312577</v>
       </c>
       <c r="AG50">
         <v>12.5</v>
       </c>
       <c r="AH50">
-        <v>10.97283483992105</v>
+        <v>10.972834839921051</v>
       </c>
       <c r="AI50">
         <v>0.7008052487793125</v>
@@ -7683,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>147</v>
       </c>
@@ -7778,7 +7940,7 @@
         <v>162</v>
       </c>
       <c r="AF51">
-        <v>7.57770067391807</v>
+        <v>7.5777006739180699</v>
       </c>
       <c r="AG51">
         <v>22.21844331923436</v>
@@ -7787,7 +7949,7 @@
         <v>15.60500281005335</v>
       </c>
       <c r="AI51">
-        <v>2.491646417397425</v>
+        <v>2.4916464173974249</v>
       </c>
       <c r="AJ51">
         <v>0</v>
@@ -7796,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -7894,13 +8056,13 @@
         <v>17.5</v>
       </c>
       <c r="AG52">
-        <v>19.41194927331209</v>
+        <v>19.411949273312089</v>
       </c>
       <c r="AH52">
-        <v>19.60584183525977</v>
+        <v>19.605841835259771</v>
       </c>
       <c r="AI52">
-        <v>3.899796627186966</v>
+        <v>3.8997966271869662</v>
       </c>
       <c r="AJ52">
         <v>0</v>
@@ -7909,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -8010,10 +8172,10 @@
         <v>12.6171875</v>
       </c>
       <c r="AH53">
-        <v>13.6365454436811</v>
+        <v>13.636545443681101</v>
       </c>
       <c r="AI53">
-        <v>2.72730908873622</v>
+        <v>2.7273090887362201</v>
       </c>
       <c r="AJ53">
         <v>0</v>
@@ -8022,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>153</v>
       </c>
@@ -8126,7 +8288,7 @@
         <v>13.53040831101243</v>
       </c>
       <c r="AI54">
-        <v>2.706081662202486</v>
+        <v>2.7060816622024859</v>
       </c>
       <c r="AJ54">
         <v>0</v>
@@ -8135,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>155</v>
       </c>
@@ -8236,7 +8398,7 @@
         <v>12.1875</v>
       </c>
       <c r="AH55">
-        <v>13.71468856793251</v>
+        <v>13.714688567932511</v>
       </c>
       <c r="AI55">
         <v>2.742937713586501</v>
@@ -8248,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>157</v>
       </c>
@@ -8337,22 +8499,22 @@
         <v>0</v>
       </c>
       <c r="AD56">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AE56">
         <v>224</v>
       </c>
       <c r="AF56">
-        <v>17.44791666666667</v>
+        <v>17.447916666666671</v>
       </c>
       <c r="AG56">
         <v>16.05263157894737</v>
       </c>
       <c r="AH56">
-        <v>20.51689403242957</v>
+        <v>20.516894032429569</v>
       </c>
       <c r="AI56">
-        <v>4.103378806485914</v>
+        <v>4.1033788064859138</v>
       </c>
       <c r="AJ56">
         <v>0</v>
@@ -8361,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -8456,16 +8618,16 @@
         <v>236</v>
       </c>
       <c r="AF57">
-        <v>13.39285714285714</v>
+        <v>13.392857142857141</v>
       </c>
       <c r="AG57">
         <v>14.32649540423181</v>
       </c>
       <c r="AH57">
-        <v>17.13341761390867</v>
+        <v>17.133417613908669</v>
       </c>
       <c r="AI57">
-        <v>3.461465165437178</v>
+        <v>3.4614651654371782</v>
       </c>
       <c r="AJ57">
         <v>0</v>
@@ -8474,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>162</v>
       </c>
@@ -8569,13 +8731,13 @@
         <v>238</v>
       </c>
       <c r="AF58">
-        <v>11.60714285714286</v>
+        <v>11.607142857142859</v>
       </c>
       <c r="AG58">
-        <v>12.73809523809524</v>
+        <v>12.738095238095241</v>
       </c>
       <c r="AH58">
-        <v>15.07126609560481</v>
+        <v>15.071266095604811</v>
       </c>
       <c r="AI58">
         <v>3.014253219120961</v>
@@ -8587,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>164</v>
       </c>
@@ -8685,13 +8847,13 @@
         <v>14.54608126002578</v>
       </c>
       <c r="AG59">
-        <v>14.07738095238095</v>
+        <v>14.077380952380951</v>
       </c>
       <c r="AH59">
-        <v>17.58443634587167</v>
+        <v>17.584436345871669</v>
       </c>
       <c r="AI59">
-        <v>3.481535175501736</v>
+        <v>3.4815351755017359</v>
       </c>
       <c r="AJ59">
         <v>0</v>
@@ -8700,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -8804,7 +8966,7 @@
         <v>14.04218726212958</v>
       </c>
       <c r="AI60">
-        <v>2.808437452425917</v>
+        <v>2.8084374524259168</v>
       </c>
       <c r="AJ60">
         <v>0</v>
@@ -8813,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>168</v>
       </c>
@@ -8908,16 +9070,16 @@
         <v>247</v>
       </c>
       <c r="AF61">
-        <v>18.33333333333334</v>
+        <v>18.333333333333339</v>
       </c>
       <c r="AG61">
         <v>12.5</v>
       </c>
       <c r="AH61">
-        <v>18.54108716140883</v>
+        <v>18.541087161408829</v>
       </c>
       <c r="AI61">
-        <v>3.708217432281765</v>
+        <v>3.7082174322817649</v>
       </c>
       <c r="AJ61">
         <v>0</v>
@@ -8926,33 +9088,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>358</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>359</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>359</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -8973,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -8997,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -9015,57 +9177,57 @@
         <v>0</v>
       </c>
       <c r="AD62">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AE62">
-        <v>252</v>
+        <v>541</v>
       </c>
       <c r="AF62">
-        <v>23.00002371281999</v>
+        <v>20.620689655172431</v>
       </c>
       <c r="AG62">
-        <v>29.67242887189773</v>
+        <v>17.956521739130441</v>
       </c>
       <c r="AH62">
-        <v>32.92559205315588</v>
+        <v>24.596321524747179</v>
       </c>
       <c r="AI62">
-        <v>6.585321293056169</v>
+        <v>4.9192643049494356</v>
       </c>
       <c r="AJ62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>445</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>446</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>447</v>
       </c>
       <c r="D63" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -9086,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -9125,63 +9287,63 @@
         <v>0</v>
       </c>
       <c r="AC63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AE63">
-        <v>253</v>
+        <v>741</v>
       </c>
       <c r="AF63">
-        <v>14.03567625233787</v>
+        <v>19.153873339037879</v>
       </c>
       <c r="AG63">
-        <v>16.06320455463398</v>
+        <v>13.04347826086957</v>
       </c>
       <c r="AH63">
-        <v>18.68049327745261</v>
+        <v>24.01137915345398</v>
       </c>
       <c r="AI63">
-        <v>3.717988855379149</v>
+        <v>4.8022758306907951</v>
       </c>
       <c r="AJ63">
         <v>1</v>
       </c>
       <c r="AK63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -9199,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -9241,31 +9403,31 @@
         <v>0</v>
       </c>
       <c r="AD64">
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="AE64">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="AF64">
-        <v>18.28382511523869</v>
+        <v>20.135135135135151</v>
       </c>
       <c r="AG64">
-        <v>16.5625</v>
+        <v>20.293207199906369</v>
       </c>
       <c r="AH64">
-        <v>21.320778261916</v>
+        <v>22.364444962872671</v>
       </c>
       <c r="AI64">
-        <v>5.462916671541178</v>
+        <v>4.4728890220795243</v>
       </c>
       <c r="AJ64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>178</v>
       </c>
@@ -9366,10 +9528,10 @@
         <v>15.24390243902439</v>
       </c>
       <c r="AH65">
-        <v>17.14128596215141</v>
+        <v>17.141285962151411</v>
       </c>
       <c r="AI65">
-        <v>3.428257192430281</v>
+        <v>3.4282571924302809</v>
       </c>
       <c r="AJ65">
         <v>0</v>
@@ -9378,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>180</v>
       </c>
@@ -9473,7 +9635,7 @@
         <v>275</v>
       </c>
       <c r="AF66">
-        <v>13.74251497005988</v>
+        <v>13.742514970059879</v>
       </c>
       <c r="AG66">
         <v>14.14772727272727</v>
@@ -9491,7 +9653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>183</v>
       </c>
@@ -9589,13 +9751,13 @@
         <v>10.68181818181818</v>
       </c>
       <c r="AG67">
-        <v>12.64705882352941</v>
+        <v>12.647058823529409</v>
       </c>
       <c r="AH67">
         <v>12.70504683363021</v>
       </c>
       <c r="AI67">
-        <v>2.541009366726041</v>
+        <v>2.5410093667260409</v>
       </c>
       <c r="AJ67">
         <v>0</v>
@@ -9604,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>186</v>
       </c>
@@ -9699,7 +9861,7 @@
         <v>279</v>
       </c>
       <c r="AF68">
-        <v>14.72602739726029</v>
+        <v>14.726027397260291</v>
       </c>
       <c r="AG68">
         <v>13.99122807017544</v>
@@ -9708,7 +9870,7 @@
         <v>15.60843050732529</v>
       </c>
       <c r="AI68">
-        <v>3.121686101465057</v>
+        <v>3.1216861014650572</v>
       </c>
       <c r="AJ68">
         <v>0</v>
@@ -9717,7 +9879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>188</v>
       </c>
@@ -9812,16 +9974,16 @@
         <v>280</v>
       </c>
       <c r="AF69">
-        <v>18.33333333333333</v>
+        <v>18.333333333333329</v>
       </c>
       <c r="AG69">
-        <v>17.02933048816493</v>
+        <v>17.029330488164931</v>
       </c>
       <c r="AH69">
-        <v>19.21640572823364</v>
+        <v>19.216405728233639</v>
       </c>
       <c r="AI69">
-        <v>3.843281097293132</v>
+        <v>3.8432810972931319</v>
       </c>
       <c r="AJ69">
         <v>0</v>
@@ -9830,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>190</v>
       </c>
@@ -9925,7 +10087,7 @@
         <v>282</v>
       </c>
       <c r="AF70">
-        <v>15.30864197530864</v>
+        <v>15.308641975308641</v>
       </c>
       <c r="AG70">
         <v>14.53125</v>
@@ -9934,7 +10096,7 @@
         <v>16.21846998676881</v>
       </c>
       <c r="AI70">
-        <v>3.243693997353761</v>
+        <v>3.2436939973537608</v>
       </c>
       <c r="AJ70">
         <v>0</v>
@@ -9943,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>192</v>
       </c>
@@ -10032,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="AD71">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE71">
         <v>283</v>
@@ -10047,7 +10209,7 @@
         <v>12.70387660657328</v>
       </c>
       <c r="AI71">
-        <v>2.540775321314656</v>
+        <v>2.5407753213146562</v>
       </c>
       <c r="AJ71">
         <v>0</v>
@@ -10056,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>194</v>
       </c>
@@ -10151,16 +10313,16 @@
         <v>284</v>
       </c>
       <c r="AF72">
-        <v>18.70689655172414</v>
+        <v>18.706896551724139</v>
       </c>
       <c r="AG72">
-        <v>16.33333333333333</v>
+        <v>16.333333333333329</v>
       </c>
       <c r="AH72">
-        <v>19.03050785356938</v>
+        <v>19.030507853569379</v>
       </c>
       <c r="AI72">
-        <v>3.806101570713876</v>
+        <v>3.8061015707138761</v>
       </c>
       <c r="AJ72">
         <v>0</v>
@@ -10169,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>196</v>
       </c>
@@ -10267,13 +10429,13 @@
         <v>13.77777777777778</v>
       </c>
       <c r="AG73">
-        <v>14.21428571428572</v>
+        <v>14.214285714285721</v>
       </c>
       <c r="AH73">
         <v>15.22566211290016</v>
       </c>
       <c r="AI73">
-        <v>3.045132422580033</v>
+        <v>3.0451324225800329</v>
       </c>
       <c r="AJ73">
         <v>0</v>
@@ -10282,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>199</v>
       </c>
@@ -10371,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AD74">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE74">
         <v>286</v>
@@ -10380,13 +10542,13 @@
         <v>10.38461538461539</v>
       </c>
       <c r="AG74">
-        <v>12.45098039215686</v>
+        <v>12.450980392156859</v>
       </c>
       <c r="AH74">
-        <v>12.43781250705879</v>
+        <v>12.437812507058791</v>
       </c>
       <c r="AI74">
-        <v>2.487562501411758</v>
+        <v>2.4875625014117579</v>
       </c>
       <c r="AJ74">
         <v>0</v>
@@ -10395,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>201</v>
       </c>
@@ -10490,16 +10652,16 @@
         <v>288</v>
       </c>
       <c r="AF75">
-        <v>15.57868965808814</v>
+        <v>15.578689658088139</v>
       </c>
       <c r="AG75">
-        <v>14.32098765432099</v>
+        <v>14.320987654320991</v>
       </c>
       <c r="AH75">
-        <v>16.24623444389436</v>
+        <v>16.246234443894359</v>
       </c>
       <c r="AI75">
-        <v>3.514913486130126</v>
+        <v>3.5149134861301259</v>
       </c>
       <c r="AJ75">
         <v>0</v>
@@ -10508,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>203</v>
       </c>
@@ -10597,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="AD76">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE76">
         <v>294</v>
@@ -10612,7 +10774,7 @@
         <v>14.97671640729695</v>
       </c>
       <c r="AI76">
-        <v>2.99534328145939</v>
+        <v>2.9953432814593901</v>
       </c>
       <c r="AJ76">
         <v>0</v>
@@ -10621,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>205</v>
       </c>
@@ -10716,16 +10878,16 @@
         <v>296</v>
       </c>
       <c r="AF77">
-        <v>11.89973931364545</v>
+        <v>11.899739313645449</v>
       </c>
       <c r="AG77">
-        <v>13.63861386138614</v>
+        <v>13.638613861386141</v>
       </c>
       <c r="AH77">
-        <v>13.90426560610308</v>
+        <v>13.904265606103079</v>
       </c>
       <c r="AI77">
-        <v>2.725397639076245</v>
+        <v>2.7253976390762449</v>
       </c>
       <c r="AJ77">
         <v>0</v>
@@ -10734,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -10823,13 +10985,13 @@
         <v>0</v>
       </c>
       <c r="AD78">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AE78">
         <v>306</v>
       </c>
       <c r="AF78">
-        <v>9.761904761904759</v>
+        <v>9.7619047619047592</v>
       </c>
       <c r="AG78">
         <v>11.5625</v>
@@ -10838,7 +11000,7 @@
         <v>10.90345540628881</v>
       </c>
       <c r="AI78">
-        <v>2.180691081257762</v>
+        <v>2.1806910812577618</v>
       </c>
       <c r="AJ78">
         <v>0</v>
@@ -10847,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>110</v>
       </c>
@@ -10942,13 +11104,13 @@
         <v>307</v>
       </c>
       <c r="AF79">
-        <v>17.15342610257449</v>
+        <v>17.153426102574489</v>
       </c>
       <c r="AG79">
         <v>17.92718992072664</v>
       </c>
       <c r="AH79">
-        <v>17.88632591042</v>
+        <v>17.886325910419998</v>
       </c>
       <c r="AI79">
         <v>3.398791215557651</v>
@@ -10960,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>210</v>
       </c>
@@ -11061,10 +11223,10 @@
         <v>14.88188976377953</v>
       </c>
       <c r="AH80">
-        <v>15.62777317943812</v>
+        <v>15.627773179438121</v>
       </c>
       <c r="AI80">
-        <v>3.125554635887623</v>
+        <v>3.1255546358876232</v>
       </c>
       <c r="AJ80">
         <v>0</v>
@@ -11073,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>212</v>
       </c>
@@ -11162,22 +11324,22 @@
         <v>0</v>
       </c>
       <c r="AD81">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE81">
         <v>311</v>
       </c>
       <c r="AF81">
-        <v>9.110222032179127</v>
+        <v>9.1102220321791272</v>
       </c>
       <c r="AG81">
         <v>11.35416666666667</v>
       </c>
       <c r="AH81">
-        <v>10.47571049450993</v>
+        <v>10.475710494509929</v>
       </c>
       <c r="AI81">
-        <v>1.96939504037121</v>
+        <v>1.9693950403712099</v>
       </c>
       <c r="AJ81">
         <v>0</v>
@@ -11186,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>214</v>
       </c>
@@ -11287,10 +11449,10 @@
         <v>12.96610169491526</v>
       </c>
       <c r="AH82">
-        <v>12.41061047167472</v>
+        <v>12.410610471674721</v>
       </c>
       <c r="AI82">
-        <v>2.250795839298095</v>
+        <v>2.2507958392980951</v>
       </c>
       <c r="AJ82">
         <v>0</v>
@@ -11299,7 +11461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>217</v>
       </c>
@@ -11403,7 +11565,7 @@
         <v>15.02282289731412</v>
       </c>
       <c r="AI83">
-        <v>3.078716114605541</v>
+        <v>3.0787161146055411</v>
       </c>
       <c r="AJ83">
         <v>0</v>
@@ -11412,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:37">
+    <row r="84" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>219</v>
       </c>
@@ -11525,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:37">
+    <row r="85" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>180</v>
       </c>
@@ -11614,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="AD85">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AE85">
         <v>322</v>
@@ -11623,7 +11785,7 @@
         <v>17.27027027027026</v>
       </c>
       <c r="AG85">
-        <v>16.24149659863945</v>
+        <v>16.241496598639451</v>
       </c>
       <c r="AH85">
         <v>17.04533403579374</v>
@@ -11638,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:37">
+    <row r="86" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>212</v>
       </c>
@@ -11727,16 +11889,16 @@
         <v>0</v>
       </c>
       <c r="AD86">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AE86">
         <v>324</v>
       </c>
       <c r="AF86">
-        <v>15.93973911383176</v>
+        <v>15.939739113831759</v>
       </c>
       <c r="AG86">
-        <v>14.74662162162162</v>
+        <v>14.746621621621619</v>
       </c>
       <c r="AH86">
         <v>15.60239114911664</v>
@@ -11751,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:37">
+    <row r="87" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>223</v>
       </c>
@@ -11846,13 +12008,13 @@
         <v>333</v>
       </c>
       <c r="AF87">
-        <v>19.95370370370371</v>
+        <v>19.953703703703709</v>
       </c>
       <c r="AG87">
-        <v>19.06012523207307</v>
+        <v>19.060125232073069</v>
       </c>
       <c r="AH87">
-        <v>19.85095633239113</v>
+        <v>19.850956332391132</v>
       </c>
       <c r="AI87">
         <v>3.970191266478226</v>
@@ -11864,7 +12026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:37">
+    <row r="88" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>225</v>
       </c>
@@ -11968,7 +12130,7 @@
         <v>12.92804395313699</v>
       </c>
       <c r="AI88">
-        <v>2.585608790627398</v>
+        <v>2.5856087906273979</v>
       </c>
       <c r="AJ88">
         <v>0</v>
@@ -11977,7 +12139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:37">
+    <row r="89" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>227</v>
       </c>
@@ -12072,16 +12234,16 @@
         <v>337</v>
       </c>
       <c r="AF89">
-        <v>17.95979077679055</v>
+        <v>17.959790776790548</v>
       </c>
       <c r="AG89">
-        <v>18.09475232043786</v>
+        <v>18.094752320437859</v>
       </c>
       <c r="AH89">
         <v>17.09803668020551</v>
       </c>
       <c r="AI89">
-        <v>3.587783970347078</v>
+        <v>3.5877839703470782</v>
       </c>
       <c r="AJ89">
         <v>0</v>
@@ -12090,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:37">
+    <row r="90" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>229</v>
       </c>
@@ -12188,13 +12350,13 @@
         <v>13.74909968478724</v>
       </c>
       <c r="AG90">
-        <v>13.14285714285714</v>
+        <v>13.142857142857141</v>
       </c>
       <c r="AH90">
         <v>12.75213654568544</v>
       </c>
       <c r="AI90">
-        <v>2.689125455231128</v>
+        <v>2.6891254552311281</v>
       </c>
       <c r="AJ90">
         <v>0</v>
@@ -12203,7 +12365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:37">
+    <row r="91" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>231</v>
       </c>
@@ -12292,13 +12454,13 @@
         <v>0</v>
       </c>
       <c r="AD91">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AE91">
         <v>341</v>
       </c>
       <c r="AF91">
-        <v>13.23227459049284</v>
+        <v>13.232274590492841</v>
       </c>
       <c r="AG91">
         <v>13.6</v>
@@ -12316,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:37">
+    <row r="92" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>233</v>
       </c>
@@ -12411,16 +12573,16 @@
         <v>345</v>
       </c>
       <c r="AF92">
-        <v>18.53826028801178</v>
+        <v>18.538260288011781</v>
       </c>
       <c r="AG92">
-        <v>16.41304347826087</v>
+        <v>16.413043478260871</v>
       </c>
       <c r="AH92">
         <v>16.57244250365374</v>
       </c>
       <c r="AI92">
-        <v>3.410040849884877</v>
+        <v>3.4100408498848771</v>
       </c>
       <c r="AJ92">
         <v>0</v>
@@ -12429,7 +12591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:37">
+    <row r="93" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>235</v>
       </c>
@@ -12527,10 +12689,10 @@
         <v>12.90697674418605</v>
       </c>
       <c r="AG93">
-        <v>12.8030303030303</v>
+        <v>12.803030303030299</v>
       </c>
       <c r="AH93">
-        <v>12.19216500847524</v>
+        <v>12.192165008475239</v>
       </c>
       <c r="AI93">
         <v>2.438433001695048</v>
@@ -12542,7 +12704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:37">
+    <row r="94" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>238</v>
       </c>
@@ -12655,7 +12817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:37">
+    <row r="95" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>224</v>
       </c>
@@ -12744,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="AD95">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AE95">
         <v>352</v>
@@ -12756,10 +12918,10 @@
         <v>13.64406779661017</v>
       </c>
       <c r="AH95">
-        <v>12.25739220145137</v>
+        <v>12.257392201451371</v>
       </c>
       <c r="AI95">
-        <v>2.451478440290274</v>
+        <v>2.4514784402902738</v>
       </c>
       <c r="AJ95">
         <v>0</v>
@@ -12768,7 +12930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:37">
+    <row r="96" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>241</v>
       </c>
@@ -12857,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="AD96">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AE96">
         <v>353</v>
@@ -12869,7 +13031,7 @@
         <v>13.21428571428571</v>
       </c>
       <c r="AH96">
-        <v>11.73505524912069</v>
+        <v>11.735055249120689</v>
       </c>
       <c r="AI96">
         <v>2.347011049824137</v>
@@ -12881,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:37">
+    <row r="97" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>243</v>
       </c>
@@ -12985,7 +13147,7 @@
         <v>11.2338578645606</v>
       </c>
       <c r="AI97">
-        <v>2.246771572912119</v>
+        <v>2.2467715729121189</v>
       </c>
       <c r="AJ97">
         <v>0</v>
@@ -12994,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:37">
+    <row r="98" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>246</v>
       </c>
@@ -13092,13 +13254,13 @@
         <v>12.6056338028169</v>
       </c>
       <c r="AG98">
-        <v>13.48214285714286</v>
+        <v>13.482142857142859</v>
       </c>
       <c r="AH98">
         <v>12.37235867391116</v>
       </c>
       <c r="AI98">
-        <v>2.474471734782232</v>
+        <v>2.4744717347822318</v>
       </c>
       <c r="AJ98">
         <v>0</v>
@@ -13107,7 +13269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:37">
+    <row r="99" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>248</v>
       </c>
@@ -13205,13 +13367,13 @@
         <v>16.9441754044079</v>
       </c>
       <c r="AG99">
-        <v>20.16653069567394</v>
+        <v>20.166530695673941</v>
       </c>
       <c r="AH99">
-        <v>17.6021892332902</v>
+        <v>17.602189233290201</v>
       </c>
       <c r="AI99">
-        <v>2.237478510193723</v>
+        <v>2.2374785101937231</v>
       </c>
       <c r="AJ99">
         <v>0</v>
@@ -13220,7 +13382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:37">
+    <row r="100" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>250</v>
       </c>
@@ -13318,10 +13480,10 @@
         <v>15.0434437692585</v>
       </c>
       <c r="AG100">
-        <v>15.36666666666667</v>
+        <v>15.366666666666671</v>
       </c>
       <c r="AH100">
-        <v>14.42151801315359</v>
+        <v>14.421518013153589</v>
       </c>
       <c r="AI100">
         <v>2.718710445516932</v>
@@ -13333,7 +13495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:37">
+    <row r="101" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>252</v>
       </c>
@@ -13428,16 +13590,16 @@
         <v>372</v>
       </c>
       <c r="AF101">
-        <v>26.62057444606466</v>
+        <v>26.620574446064659</v>
       </c>
       <c r="AG101">
         <v>25.41696026473457</v>
       </c>
       <c r="AH101">
-        <v>24.59119736064338</v>
+        <v>24.591197360643381</v>
       </c>
       <c r="AI101">
-        <v>5.133156578189701</v>
+        <v>5.1331565781897011</v>
       </c>
       <c r="AJ101">
         <v>0</v>
@@ -13446,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:37">
+    <row r="102" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>254</v>
       </c>
@@ -13541,16 +13703,16 @@
         <v>373</v>
       </c>
       <c r="AF102">
-        <v>22.04141922626234</v>
+        <v>22.041419226262342</v>
       </c>
       <c r="AG102">
-        <v>24.37892143388784</v>
+        <v>24.378921433887839</v>
       </c>
       <c r="AH102">
-        <v>21.87260089230155</v>
+        <v>21.872600892301548</v>
       </c>
       <c r="AI102">
-        <v>5.173553679360104</v>
+        <v>5.1735536793601042</v>
       </c>
       <c r="AJ102">
         <v>0</v>
@@ -13559,7 +13721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:37">
+    <row r="103" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>257</v>
       </c>
@@ -13657,10 +13819,10 @@
         <v>19.61538461538462</v>
       </c>
       <c r="AG103">
-        <v>18.31632016196984</v>
+        <v>18.316320161969841</v>
       </c>
       <c r="AH103">
-        <v>17.93317850511833</v>
+        <v>17.933178505118331</v>
       </c>
       <c r="AI103">
         <v>3.586320492874568</v>
@@ -13672,7 +13834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:37">
+    <row r="104" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>259</v>
       </c>
@@ -13770,7 +13932,7 @@
         <v>18.2258064516129</v>
       </c>
       <c r="AG104">
-        <v>19.3814005385069</v>
+        <v>19.381400538506899</v>
       </c>
       <c r="AH104">
         <v>17.7338480923028</v>
@@ -13785,7 +13947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:37">
+    <row r="105" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -13880,13 +14042,13 @@
         <v>379</v>
       </c>
       <c r="AF105">
-        <v>18.36181442808706</v>
+        <v>18.361814428087062</v>
       </c>
       <c r="AG105">
         <v>16.77173500366985</v>
       </c>
       <c r="AH105">
-        <v>16.61754844044973</v>
+        <v>16.617548440449731</v>
       </c>
       <c r="AI105">
         <v>3.654772467001044</v>
@@ -13898,7 +14060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:37">
+    <row r="106" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>264</v>
       </c>
@@ -14002,7 +14164,7 @@
         <v>10.98856000235962</v>
       </c>
       <c r="AI106">
-        <v>2.197712000471924</v>
+        <v>2.1977120004719239</v>
       </c>
       <c r="AJ106">
         <v>0</v>
@@ -14011,7 +14173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:37">
+    <row r="107" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>266</v>
       </c>
@@ -14100,13 +14262,13 @@
         <v>0</v>
       </c>
       <c r="AD107">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE107">
         <v>384</v>
       </c>
       <c r="AF107">
-        <v>14.57142857142857</v>
+        <v>14.571428571428569</v>
       </c>
       <c r="AG107">
         <v>14.90740740740741</v>
@@ -14115,7 +14277,7 @@
         <v>13.91158587235531</v>
       </c>
       <c r="AI107">
-        <v>2.782317174471063</v>
+        <v>2.7823171744710629</v>
       </c>
       <c r="AJ107">
         <v>0</v>
@@ -14124,7 +14286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:37">
+    <row r="108" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>268</v>
       </c>
@@ -14219,10 +14381,10 @@
         <v>385</v>
       </c>
       <c r="AF108">
-        <v>16.97368421052632</v>
+        <v>16.973684210526319</v>
       </c>
       <c r="AG108">
-        <v>18.07995223985949</v>
+        <v>18.079952239859491</v>
       </c>
       <c r="AH108">
         <v>16.52915282512345</v>
@@ -14237,7 +14399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:37">
+    <row r="109" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>205</v>
       </c>
@@ -14326,22 +14488,22 @@
         <v>0</v>
       </c>
       <c r="AD109">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE109">
         <v>387</v>
       </c>
       <c r="AF109">
-        <v>20.21505376344085</v>
+        <v>20.215053763440849</v>
       </c>
       <c r="AG109">
-        <v>19.02394387999725</v>
+        <v>19.023943879997251</v>
       </c>
       <c r="AH109">
-        <v>18.5483646453937</v>
+        <v>18.548364645393701</v>
       </c>
       <c r="AI109">
-        <v>3.713112597745812</v>
+        <v>3.7131125977458121</v>
       </c>
       <c r="AJ109">
         <v>0</v>
@@ -14350,7 +14512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:37">
+    <row r="110" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>272</v>
       </c>
@@ -14445,16 +14607,16 @@
         <v>389</v>
       </c>
       <c r="AF110">
-        <v>24.71264367816092</v>
+        <v>24.712643678160919</v>
       </c>
       <c r="AG110">
-        <v>21.90125747904874</v>
+        <v>21.901257479048741</v>
       </c>
       <c r="AH110">
-        <v>22.06073798814492</v>
+        <v>22.060737988144918</v>
       </c>
       <c r="AI110">
-        <v>4.4795100441996</v>
+        <v>4.4795100441995999</v>
       </c>
       <c r="AJ110">
         <v>0</v>
@@ -14463,7 +14625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:37">
+    <row r="111" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>274</v>
       </c>
@@ -14558,16 +14720,16 @@
         <v>390</v>
       </c>
       <c r="AF111">
-        <v>34.64864864864865</v>
+        <v>34.648648648648653</v>
       </c>
       <c r="AG111">
-        <v>33.31369958820856</v>
+        <v>33.313699588208557</v>
       </c>
       <c r="AH111">
-        <v>32.11227785661548</v>
+        <v>32.112277856615478</v>
       </c>
       <c r="AI111">
-        <v>6.422455571324262</v>
+        <v>6.4224555713242619</v>
       </c>
       <c r="AJ111">
         <v>0</v>
@@ -14576,7 +14738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:37">
+    <row r="112" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>276</v>
       </c>
@@ -14671,16 +14833,16 @@
         <v>391</v>
       </c>
       <c r="AF112">
-        <v>20.00000000000001</v>
+        <v>20.000000000000011</v>
       </c>
       <c r="AG112">
-        <v>17.70869130766989</v>
+        <v>17.708691307669891</v>
       </c>
       <c r="AH112">
-        <v>17.84653165330973</v>
+        <v>17.846531653309729</v>
       </c>
       <c r="AI112">
-        <v>3.569856744924175</v>
+        <v>3.5698567449241749</v>
       </c>
       <c r="AJ112">
         <v>0</v>
@@ -14689,7 +14851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:37">
+    <row r="113" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>278</v>
       </c>
@@ -14793,7 +14955,7 @@
         <v>21.05513118486116</v>
       </c>
       <c r="AI113">
-        <v>4.147002665988523</v>
+        <v>4.1470026659885226</v>
       </c>
       <c r="AJ113">
         <v>0</v>
@@ -14802,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:37">
+    <row r="114" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>280</v>
       </c>
@@ -14915,7 +15077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:37">
+    <row r="115" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>282</v>
       </c>
@@ -15028,7 +15190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:37">
+    <row r="116" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>284</v>
       </c>
@@ -15117,13 +15279,13 @@
         <v>0</v>
       </c>
       <c r="AD116">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE116">
         <v>421</v>
       </c>
       <c r="AF116">
-        <v>12.08333333333334</v>
+        <v>12.083333333333339</v>
       </c>
       <c r="AG116">
         <v>11.5625</v>
@@ -15141,7 +15303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:37">
+    <row r="117" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -15239,7 +15401,7 @@
         <v>11</v>
       </c>
       <c r="AG117">
-        <v>10.35714285714286</v>
+        <v>10.357142857142859</v>
       </c>
       <c r="AH117">
         <v>0</v>
@@ -15254,7 +15416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:37">
+    <row r="118" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>287</v>
       </c>
@@ -15349,7 +15511,7 @@
         <v>440</v>
       </c>
       <c r="AF118">
-        <v>11.24999999413228</v>
+        <v>11.249999994132279</v>
       </c>
       <c r="AG118">
         <v>10.9375</v>
@@ -15367,7 +15529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:37">
+    <row r="119" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>289</v>
       </c>
@@ -15456,7 +15618,7 @@
         <v>0</v>
       </c>
       <c r="AD119">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE119">
         <v>442</v>
@@ -15480,7 +15642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:37">
+    <row r="120" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>291</v>
       </c>
@@ -15569,22 +15731,22 @@
         <v>0</v>
       </c>
       <c r="AD120">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE120">
         <v>449</v>
       </c>
       <c r="AF120">
-        <v>12.61799820180227</v>
+        <v>12.617998201802269</v>
       </c>
       <c r="AG120">
-        <v>12.07142857142857</v>
+        <v>12.071428571428569</v>
       </c>
       <c r="AH120">
         <v>13.30366077873146</v>
       </c>
       <c r="AI120">
-        <v>3.026297784342079</v>
+        <v>3.0262977843420789</v>
       </c>
       <c r="AJ120">
         <v>0</v>
@@ -15593,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:37">
+    <row r="121" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -15691,7 +15853,7 @@
         <v>13.15200000000001</v>
       </c>
       <c r="AG121">
-        <v>11.93939393939394</v>
+        <v>11.939393939393939</v>
       </c>
       <c r="AH121">
         <v>13.52865709943357</v>
@@ -15706,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:37">
+    <row r="122" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>294</v>
       </c>
@@ -15807,7 +15969,7 @@
         <v>13.77345931990733</v>
       </c>
       <c r="AH122">
-        <v>15.17053290573783</v>
+        <v>15.170532905737829</v>
       </c>
       <c r="AI122">
         <v>3.800154574639401</v>
@@ -15819,7 +15981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:37">
+    <row r="123" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>297</v>
       </c>
@@ -15914,7 +16076,7 @@
         <v>452</v>
       </c>
       <c r="AF123">
-        <v>13.88742744169813</v>
+        <v>13.887427441698129</v>
       </c>
       <c r="AG123">
         <v>13.11302030452379</v>
@@ -15923,7 +16085,7 @@
         <v>14.55119071174172</v>
       </c>
       <c r="AI123">
-        <v>3.333427937513546</v>
+        <v>3.3334279375135458</v>
       </c>
       <c r="AJ123">
         <v>0</v>
@@ -15932,7 +16094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:37">
+    <row r="124" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>299</v>
       </c>
@@ -16030,7 +16192,7 @@
         <v>12.22857142857143</v>
       </c>
       <c r="AG124">
-        <v>11.92592592592593</v>
+        <v>11.925925925925929</v>
       </c>
       <c r="AH124">
         <v>13.0124524971474</v>
@@ -16045,7 +16207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:37">
+    <row r="125" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>301</v>
       </c>
@@ -16140,16 +16302,16 @@
         <v>459</v>
       </c>
       <c r="AF125">
-        <v>15.86813186813185</v>
+        <v>15.868131868131851</v>
       </c>
       <c r="AG125">
         <v>13.83333333333333</v>
       </c>
       <c r="AH125">
-        <v>16.02195524476685</v>
+        <v>16.021955244766851</v>
       </c>
       <c r="AI125">
-        <v>4.005488811191713</v>
+        <v>4.0054888111917126</v>
       </c>
       <c r="AJ125">
         <v>0</v>
@@ -16158,7 +16320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:37">
+    <row r="126" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>304</v>
       </c>
@@ -16271,18 +16433,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:37">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="B127" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="C127" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="D127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -16291,13 +16453,13 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -16336,7 +16498,7 @@
         <v>0</v>
       </c>
       <c r="V127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W127">
         <v>0</v>
@@ -16351,7 +16513,7 @@
         <v>0</v>
       </c>
       <c r="AA127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB127">
         <v>0</v>
@@ -16360,31 +16522,31 @@
         <v>0</v>
       </c>
       <c r="AD127">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE127">
-        <v>462</v>
+        <v>658</v>
       </c>
       <c r="AF127">
-        <v>32.72727272727272</v>
+        <v>19.905667636699359</v>
       </c>
       <c r="AG127">
-        <v>29.45378193919176</v>
+        <v>20.113300774652679</v>
       </c>
       <c r="AH127">
-        <v>33.52991332797089</v>
+        <v>19.018087701860171</v>
       </c>
       <c r="AI127">
-        <v>8.349185901834113</v>
+        <v>4.1813776289209281</v>
       </c>
       <c r="AJ127">
         <v>1</v>
       </c>
       <c r="AK127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:37">
+    <row r="128" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>308</v>
       </c>
@@ -16485,7 +16647,7 @@
         <v>12.04733634764008</v>
       </c>
       <c r="AH128">
-        <v>13.09103409395883</v>
+        <v>13.091034093958831</v>
       </c>
       <c r="AI128">
         <v>3.272760025253187</v>
@@ -16497,7 +16659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:37">
+    <row r="129" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>310</v>
       </c>
@@ -16592,16 +16754,16 @@
         <v>474</v>
       </c>
       <c r="AF129">
-        <v>15.3235294117647</v>
+        <v>15.323529411764699</v>
       </c>
       <c r="AG129">
         <v>14.73763986659192</v>
       </c>
       <c r="AH129">
-        <v>16.1971551913185</v>
+        <v>16.197155191318501</v>
       </c>
       <c r="AI129">
-        <v>4.059151976869792</v>
+        <v>4.0591519768697921</v>
       </c>
       <c r="AJ129">
         <v>0</v>
@@ -16610,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:37">
+    <row r="130" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>312</v>
       </c>
@@ -16708,13 +16870,13 @@
         <v>19.2</v>
       </c>
       <c r="AG130">
-        <v>14.82482965912416</v>
+        <v>14.824829659124161</v>
       </c>
       <c r="AH130">
-        <v>18.38025214670085</v>
+        <v>18.380252146700851</v>
       </c>
       <c r="AI130">
-        <v>4.600471800282754</v>
+        <v>4.6004718002827536</v>
       </c>
       <c r="AJ130">
         <v>0</v>
@@ -16723,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:37">
+    <row r="131" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>314</v>
       </c>
@@ -16821,13 +16983,13 @@
         <v>14.83333333333333</v>
       </c>
       <c r="AG131">
-        <v>15.43478260869565</v>
+        <v>15.434782608695651</v>
       </c>
       <c r="AH131">
-        <v>14.98688841588761</v>
+        <v>14.986888415887609</v>
       </c>
       <c r="AI131">
-        <v>2.997377683177522</v>
+        <v>2.9973776831775218</v>
       </c>
       <c r="AJ131">
         <v>0</v>
@@ -16836,7 +16998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:37">
+    <row r="132" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>317</v>
       </c>
@@ -16925,22 +17087,22 @@
         <v>0</v>
       </c>
       <c r="AD132">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AE132">
         <v>482</v>
       </c>
       <c r="AF132">
-        <v>21.98264338303712</v>
+        <v>21.982643383037122</v>
       </c>
       <c r="AG132">
-        <v>22.16967345110766</v>
+        <v>22.169673451107659</v>
       </c>
       <c r="AH132">
-        <v>21.86128543019529</v>
+        <v>21.861285430195291</v>
       </c>
       <c r="AI132">
-        <v>4.153799950657456</v>
+        <v>4.1537999506574561</v>
       </c>
       <c r="AJ132">
         <v>0</v>
@@ -16949,7 +17111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:37">
+    <row r="133" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>320</v>
       </c>
@@ -17062,7 +17224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:37">
+    <row r="134" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>259</v>
       </c>
@@ -17157,16 +17319,16 @@
         <v>486</v>
       </c>
       <c r="AF134">
-        <v>19.72222222222222</v>
+        <v>19.722222222222221</v>
       </c>
       <c r="AG134">
-        <v>15.80357142857143</v>
+        <v>15.803571428571431</v>
       </c>
       <c r="AH134">
-        <v>17.58885231215636</v>
+        <v>17.588852312156359</v>
       </c>
       <c r="AI134">
-        <v>3.517770462431271</v>
+        <v>3.5177704624312711</v>
       </c>
       <c r="AJ134">
         <v>0</v>
@@ -17175,7 +17337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:37">
+    <row r="135" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>128</v>
       </c>
@@ -17270,10 +17432,10 @@
         <v>487</v>
       </c>
       <c r="AF135">
-        <v>18.16831683168317</v>
+        <v>18.168316831683171</v>
       </c>
       <c r="AG135">
-        <v>19.5787888856056</v>
+        <v>19.578788885605601</v>
       </c>
       <c r="AH135">
         <v>18.69020620844222</v>
@@ -17288,7 +17450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:37">
+    <row r="136" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>326</v>
       </c>
@@ -17383,13 +17545,13 @@
         <v>490</v>
       </c>
       <c r="AF136">
-        <v>10.55555555555556</v>
+        <v>10.555555555555561</v>
       </c>
       <c r="AG136">
         <v>11.25</v>
       </c>
       <c r="AH136">
-        <v>10.79682889996558</v>
+        <v>10.796828899965581</v>
       </c>
       <c r="AI136">
         <v>2.159365779993117</v>
@@ -17401,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:37">
+    <row r="137" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>328</v>
       </c>
@@ -17502,10 +17664,10 @@
         <v>15.28508771929824</v>
       </c>
       <c r="AH137">
-        <v>17.11955540410064</v>
+        <v>17.119555404100641</v>
       </c>
       <c r="AI137">
-        <v>4.257542282807655</v>
+        <v>4.2575422828076546</v>
       </c>
       <c r="AJ137">
         <v>0</v>
@@ -17514,7 +17676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:37">
+    <row r="138" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>246</v>
       </c>
@@ -17609,7 +17771,7 @@
         <v>494</v>
       </c>
       <c r="AF138">
-        <v>15.57437053451092</v>
+        <v>15.574370534510919</v>
       </c>
       <c r="AG138">
         <v>15.10330578512397</v>
@@ -17618,7 +17780,7 @@
         <v>15.18937087064748</v>
       </c>
       <c r="AI138">
-        <v>2.721527077137117</v>
+        <v>2.7215270771371172</v>
       </c>
       <c r="AJ138">
         <v>0</v>
@@ -17627,7 +17789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:37">
+    <row r="139" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>332</v>
       </c>
@@ -17722,16 +17884,16 @@
         <v>497</v>
       </c>
       <c r="AF139">
-        <v>14.16081930164927</v>
+        <v>14.160819301649269</v>
       </c>
       <c r="AG139">
-        <v>21.04398059059069</v>
+        <v>21.043980590590689</v>
       </c>
       <c r="AH139">
         <v>17.43298034701338</v>
       </c>
       <c r="AI139">
-        <v>3.48654180089016</v>
+        <v>3.4865418008901599</v>
       </c>
       <c r="AJ139">
         <v>0</v>
@@ -17740,7 +17902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:37">
+    <row r="140" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>334</v>
       </c>
@@ -17841,7 +18003,7 @@
         <v>13.46153846153846</v>
       </c>
       <c r="AH140">
-        <v>12.92077119117183</v>
+        <v>12.920771191171831</v>
       </c>
       <c r="AI140">
         <v>2.584154238234365</v>
@@ -17853,7 +18015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:37">
+    <row r="141" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>336</v>
       </c>
@@ -17957,7 +18119,7 @@
         <v>15.69411417525264</v>
       </c>
       <c r="AI141">
-        <v>3.138822835050529</v>
+        <v>3.1388228350505289</v>
       </c>
       <c r="AJ141">
         <v>0</v>
@@ -17966,7 +18128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:37">
+    <row r="142" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>112</v>
       </c>
@@ -18061,16 +18223,16 @@
         <v>502</v>
       </c>
       <c r="AF142">
-        <v>23.02856317146904</v>
+        <v>23.028563171469042</v>
       </c>
       <c r="AG142">
-        <v>22.16303112320768</v>
+        <v>22.163031123207681</v>
       </c>
       <c r="AH142">
-        <v>22.37556672663369</v>
+        <v>22.375566726633689</v>
       </c>
       <c r="AI142">
-        <v>4.289391881629417</v>
+        <v>4.2893918816294168</v>
       </c>
       <c r="AJ142">
         <v>0</v>
@@ -18079,7 +18241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:37">
+    <row r="143" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>340</v>
       </c>
@@ -18174,7 +18336,7 @@
         <v>509</v>
       </c>
       <c r="AF143">
-        <v>27.11046481503928</v>
+        <v>27.110464815039279</v>
       </c>
       <c r="AG143">
         <v>14.72222222222222</v>
@@ -18183,7 +18345,7 @@
         <v>20.70919694103468</v>
       </c>
       <c r="AI143">
-        <v>4.793011032857502</v>
+        <v>4.7930110328575024</v>
       </c>
       <c r="AJ143">
         <v>1</v>
@@ -18192,7 +18354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:37">
+    <row r="144" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>341</v>
       </c>
@@ -18290,13 +18452,13 @@
         <v>22.59763030033962</v>
       </c>
       <c r="AG144">
-        <v>18.61111111111111</v>
+        <v>18.611111111111111</v>
       </c>
       <c r="AH144">
         <v>26.29025856165714</v>
       </c>
       <c r="AI144">
-        <v>6.109169953297997</v>
+        <v>6.1091699532979966</v>
       </c>
       <c r="AJ144">
         <v>0</v>
@@ -18305,7 +18467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:37">
+    <row r="145" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>344</v>
       </c>
@@ -18400,7 +18562,7 @@
         <v>520</v>
       </c>
       <c r="AF145">
-        <v>7.520929943442543</v>
+        <v>7.5209299434425434</v>
       </c>
       <c r="AG145">
         <v>10.41666666666667</v>
@@ -18409,7 +18571,7 @@
         <v>11.37838603779948</v>
       </c>
       <c r="AI145">
-        <v>2.116078794825037</v>
+        <v>2.1160787948250368</v>
       </c>
       <c r="AJ145">
         <v>0</v>
@@ -18418,7 +18580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:37">
+    <row r="146" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>317</v>
       </c>
@@ -18513,16 +18675,16 @@
         <v>523</v>
       </c>
       <c r="AF146">
-        <v>16.77109652913038</v>
+        <v>16.771096529130379</v>
       </c>
       <c r="AG146">
         <v>17.35622377011364</v>
       </c>
       <c r="AH146">
-        <v>21.71758189565779</v>
+        <v>21.717581895657791</v>
       </c>
       <c r="AI146">
-        <v>4.424479832296596</v>
+        <v>4.4244798322965959</v>
       </c>
       <c r="AJ146">
         <v>0</v>
@@ -18531,7 +18693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:37">
+    <row r="147" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>348</v>
       </c>
@@ -18629,13 +18791,13 @@
         <v>14.77443609022558</v>
       </c>
       <c r="AG147">
-        <v>14.95238095238095</v>
+        <v>14.952380952380951</v>
       </c>
       <c r="AH147">
         <v>18.92192119935418</v>
       </c>
       <c r="AI147">
-        <v>3.784384239870835</v>
+        <v>3.7843842398708349</v>
       </c>
       <c r="AJ147">
         <v>0</v>
@@ -18644,7 +18806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:37">
+    <row r="148" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>332</v>
       </c>
@@ -18739,16 +18901,16 @@
         <v>529</v>
       </c>
       <c r="AF148">
-        <v>24.09670912484179</v>
+        <v>24.096709124841791</v>
       </c>
       <c r="AG148">
         <v>13.08823529411765</v>
       </c>
       <c r="AH148">
-        <v>23.82782956075592</v>
+        <v>23.827829560755919</v>
       </c>
       <c r="AI148">
-        <v>4.987200479970895</v>
+        <v>4.9872004799708947</v>
       </c>
       <c r="AJ148">
         <v>0</v>
@@ -18757,7 +18919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:37">
+    <row r="149" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>351</v>
       </c>
@@ -18852,7 +19014,7 @@
         <v>532</v>
       </c>
       <c r="AF149">
-        <v>24.99999999999999</v>
+        <v>24.999999999999989</v>
       </c>
       <c r="AG149">
         <v>19.54545454545455</v>
@@ -18861,7 +19023,7 @@
         <v>28.43518056851287</v>
       </c>
       <c r="AI149">
-        <v>5.687036113702574</v>
+        <v>5.6870361137025736</v>
       </c>
       <c r="AJ149">
         <v>0</v>
@@ -18870,7 +19032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:37">
+    <row r="150" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>353</v>
       </c>
@@ -18971,7 +19133,7 @@
         <v>13.09734513274336</v>
       </c>
       <c r="AH150">
-        <v>18.92576105707082</v>
+        <v>18.925761057070819</v>
       </c>
       <c r="AI150">
         <v>3.785152211414164</v>
@@ -18983,7 +19145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:37">
+    <row r="151" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>356</v>
       </c>
@@ -19072,7 +19234,7 @@
         <v>0</v>
       </c>
       <c r="AD151">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE151">
         <v>538</v>
@@ -19084,7 +19246,7 @@
         <v>12.83854166666667</v>
       </c>
       <c r="AH151">
-        <v>17.22548923302667</v>
+        <v>17.225489233026671</v>
       </c>
       <c r="AI151">
         <v>3.445097846605333</v>
@@ -19096,33 +19258,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:37">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>358</v>
+        <v>126</v>
       </c>
       <c r="B152" t="s">
-        <v>359</v>
+        <v>127</v>
       </c>
       <c r="C152" t="s">
-        <v>359</v>
+        <v>127</v>
       </c>
       <c r="D152" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -19134,7 +19296,7 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -19167,7 +19329,7 @@
         <v>0</v>
       </c>
       <c r="X152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y152">
         <v>0</v>
@@ -19185,31 +19347,31 @@
         <v>0</v>
       </c>
       <c r="AD152">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AE152">
-        <v>541</v>
+        <v>122</v>
       </c>
       <c r="AF152">
-        <v>20.62068965517243</v>
+        <v>16</v>
       </c>
       <c r="AG152">
-        <v>17.95652173913044</v>
+        <v>12.30769230769231</v>
       </c>
       <c r="AH152">
-        <v>24.59632152474718</v>
+        <v>15.09090155926676</v>
       </c>
       <c r="AI152">
-        <v>4.919264304949436</v>
+        <v>3.7727253898166899</v>
       </c>
       <c r="AJ152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:37">
+    <row r="153" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>360</v>
       </c>
@@ -19304,7 +19466,7 @@
         <v>544</v>
       </c>
       <c r="AF153">
-        <v>16.9207566146409</v>
+        <v>16.920756614640901</v>
       </c>
       <c r="AG153">
         <v>15.47619047619048</v>
@@ -19313,7 +19475,7 @@
         <v>20.64467042231794</v>
       </c>
       <c r="AI153">
-        <v>5.102392343709598</v>
+        <v>5.1023923437095977</v>
       </c>
       <c r="AJ153">
         <v>0</v>
@@ -19322,15 +19484,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:37">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>362</v>
+        <v>173</v>
       </c>
       <c r="B154" t="s">
-        <v>363</v>
+        <v>174</v>
       </c>
       <c r="C154" t="s">
-        <v>363</v>
+        <v>175</v>
       </c>
       <c r="D154" t="s">
         <v>4</v>
@@ -19348,7 +19510,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -19369,7 +19531,7 @@
         <v>0</v>
       </c>
       <c r="P154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q154">
         <v>0</v>
@@ -19393,7 +19555,7 @@
         <v>0</v>
       </c>
       <c r="X154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y154">
         <v>0</v>
@@ -19411,31 +19573,31 @@
         <v>0</v>
       </c>
       <c r="AD154">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE154">
-        <v>547</v>
+        <v>253</v>
       </c>
       <c r="AF154">
-        <v>24.08972327710334</v>
+        <v>14.03567625233787</v>
       </c>
       <c r="AG154">
-        <v>18.984375</v>
+        <v>16.06320455463398</v>
       </c>
       <c r="AH154">
-        <v>27.49356673145718</v>
+        <v>18.680493277452609</v>
       </c>
       <c r="AI154">
-        <v>5.166278920715428</v>
+        <v>3.7179888553791489</v>
       </c>
       <c r="AJ154">
         <v>1</v>
       </c>
       <c r="AK154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:37">
+    <row r="155" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>364</v>
       </c>
@@ -19533,13 +19695,13 @@
         <v>22.99319727891157</v>
       </c>
       <c r="AG155">
-        <v>22.41707051808148</v>
+        <v>22.417070518081481</v>
       </c>
       <c r="AH155">
-        <v>28.91683589755509</v>
+        <v>28.916835897555089</v>
       </c>
       <c r="AI155">
-        <v>5.766066517405333</v>
+        <v>5.7660665174053332</v>
       </c>
       <c r="AJ155">
         <v>0</v>
@@ -19548,7 +19710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:37">
+    <row r="156" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>365</v>
       </c>
@@ -19637,7 +19799,7 @@
         <v>0</v>
       </c>
       <c r="AD156">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AE156">
         <v>561</v>
@@ -19646,13 +19808,13 @@
         <v>13.5</v>
       </c>
       <c r="AG156">
-        <v>13.92857142857143</v>
+        <v>13.928571428571431</v>
       </c>
       <c r="AH156">
-        <v>14.72226673710269</v>
+        <v>14.722266737102689</v>
       </c>
       <c r="AI156">
-        <v>2.944453347420538</v>
+        <v>2.9444533474205379</v>
       </c>
       <c r="AJ156">
         <v>0</v>
@@ -19661,7 +19823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:37">
+    <row r="157" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>332</v>
       </c>
@@ -19756,13 +19918,13 @@
         <v>564</v>
       </c>
       <c r="AF157">
-        <v>18.50356936404727</v>
+        <v>18.503569364047269</v>
       </c>
       <c r="AG157">
         <v>12.43243243243243</v>
       </c>
       <c r="AH157">
-        <v>16.74680996225812</v>
+        <v>16.746809962258119</v>
       </c>
       <c r="AI157">
         <v>2.735681300523948</v>
@@ -19774,7 +19936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:37">
+    <row r="158" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>368</v>
       </c>
@@ -19872,10 +20034,10 @@
         <v>17.12765957446809</v>
       </c>
       <c r="AG158">
-        <v>17.67080353175922</v>
+        <v>17.670803531759219</v>
       </c>
       <c r="AH158">
-        <v>18.67806359936909</v>
+        <v>18.678063599369089</v>
       </c>
       <c r="AI158">
         <v>3.7445072518256</v>
@@ -19887,7 +20049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:37">
+    <row r="159" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>370</v>
       </c>
@@ -19982,16 +20144,16 @@
         <v>568</v>
       </c>
       <c r="AF159">
-        <v>20.18679244565607</v>
+        <v>20.186792445656071</v>
       </c>
       <c r="AG159">
-        <v>19.1027107267466</v>
+        <v>19.102710726746601</v>
       </c>
       <c r="AH159">
-        <v>21.12538196671778</v>
+        <v>21.125381966717779</v>
       </c>
       <c r="AI159">
-        <v>4.429050038786888</v>
+        <v>4.4290500387868876</v>
       </c>
       <c r="AJ159">
         <v>0</v>
@@ -20000,7 +20162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:37">
+    <row r="160" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>372</v>
       </c>
@@ -20095,13 +20257,13 @@
         <v>570</v>
       </c>
       <c r="AF160">
-        <v>17.79692237085854</v>
+        <v>17.796922370858539</v>
       </c>
       <c r="AG160">
-        <v>16.01190476190476</v>
+        <v>16.011904761904759</v>
       </c>
       <c r="AH160">
-        <v>18.1969567015376</v>
+        <v>18.196956701537601</v>
       </c>
       <c r="AI160">
         <v>3.786441603783762</v>
@@ -20113,7 +20275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:37">
+    <row r="161" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>374</v>
       </c>
@@ -20208,16 +20370,16 @@
         <v>578</v>
       </c>
       <c r="AF161">
-        <v>20.76067002070875</v>
+        <v>20.760670020708751</v>
       </c>
       <c r="AG161">
-        <v>12.93918918918919</v>
+        <v>12.939189189189189</v>
       </c>
       <c r="AH161">
-        <v>18.269145870962</v>
+        <v>18.269145870961999</v>
       </c>
       <c r="AI161">
-        <v>3.6538291741924</v>
+        <v>3.6538291741924001</v>
       </c>
       <c r="AJ161">
         <v>0</v>
@@ -20226,7 +20388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:37">
+    <row r="162" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>376</v>
       </c>
@@ -20327,10 +20489,10 @@
         <v>11.81034482758621</v>
       </c>
       <c r="AH162">
-        <v>11.67486545891749</v>
+        <v>11.674865458917489</v>
       </c>
       <c r="AI162">
-        <v>2.334973091783499</v>
+        <v>2.3349730917834992</v>
       </c>
       <c r="AJ162">
         <v>0</v>
@@ -20339,7 +20501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:37">
+    <row r="163" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>378</v>
       </c>
@@ -20428,7 +20590,7 @@
         <v>0</v>
       </c>
       <c r="AD163">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE163">
         <v>598</v>
@@ -20437,13 +20599,13 @@
         <v>16.67583827267476</v>
       </c>
       <c r="AG163">
-        <v>16.56015037593985</v>
+        <v>16.560150375939848</v>
       </c>
       <c r="AH163">
-        <v>17.85314430356735</v>
+        <v>17.853144303567351</v>
       </c>
       <c r="AI163">
-        <v>3.466102027271695</v>
+        <v>3.4661020272716949</v>
       </c>
       <c r="AJ163">
         <v>0</v>
@@ -20452,7 +20614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:37">
+    <row r="164" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>380</v>
       </c>
@@ -20550,13 +20712,13 @@
         <v>14.5</v>
       </c>
       <c r="AG164">
-        <v>11.94822486350498</v>
+        <v>11.948224863504979</v>
       </c>
       <c r="AH164">
-        <v>14.26027157929451</v>
+        <v>14.260271579294511</v>
       </c>
       <c r="AI164">
-        <v>2.856078497651797</v>
+        <v>2.8560784976517972</v>
       </c>
       <c r="AJ164">
         <v>0</v>
@@ -20565,7 +20727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:37">
+    <row r="165" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>382</v>
       </c>
@@ -20654,7 +20816,7 @@
         <v>0</v>
       </c>
       <c r="AD165">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AE165">
         <v>612</v>
@@ -20666,7 +20828,7 @@
         <v>11.33333333333333</v>
       </c>
       <c r="AH165">
-        <v>11.69570259312878</v>
+        <v>11.695702593128781</v>
       </c>
       <c r="AI165">
         <v>2.339140518625757</v>
@@ -20678,7 +20840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:37">
+    <row r="166" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>212</v>
       </c>
@@ -20767,7 +20929,7 @@
         <v>0</v>
       </c>
       <c r="AD166">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AE166">
         <v>613</v>
@@ -20782,7 +20944,7 @@
         <v>11.96170359754052</v>
       </c>
       <c r="AI166">
-        <v>2.420977816455277</v>
+        <v>2.4209778164552769</v>
       </c>
       <c r="AJ166">
         <v>0</v>
@@ -20791,7 +20953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:37">
+    <row r="167" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>385</v>
       </c>
@@ -20886,7 +21048,7 @@
         <v>618</v>
       </c>
       <c r="AF167">
-        <v>12.3076923076923</v>
+        <v>12.307692307692299</v>
       </c>
       <c r="AG167">
         <v>14.5</v>
@@ -20895,7 +21057,7 @@
         <v>14.17693405933715</v>
       </c>
       <c r="AI167">
-        <v>2.83538681186743</v>
+        <v>2.8353868118674299</v>
       </c>
       <c r="AJ167">
         <v>0</v>
@@ -20904,7 +21066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:37">
+    <row r="168" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>387</v>
       </c>
@@ -21002,13 +21164,13 @@
         <v>11.15384615384616</v>
       </c>
       <c r="AG168">
-        <v>13.05555555555556</v>
+        <v>13.055555555555561</v>
       </c>
       <c r="AH168">
-        <v>12.79684106857754</v>
+        <v>12.796841068577541</v>
       </c>
       <c r="AI168">
-        <v>2.559368213715507</v>
+        <v>2.5593682137155072</v>
       </c>
       <c r="AJ168">
         <v>0</v>
@@ -21017,7 +21179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:37">
+    <row r="169" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>389</v>
       </c>
@@ -21112,16 +21274,16 @@
         <v>630</v>
       </c>
       <c r="AF169">
-        <v>10.87499999999999</v>
+        <v>10.874999999999989</v>
       </c>
       <c r="AG169">
-        <v>13.05555555555556</v>
+        <v>13.055555555555561</v>
       </c>
       <c r="AH169">
         <v>12.67261431669964</v>
       </c>
       <c r="AI169">
-        <v>2.534522863339929</v>
+        <v>2.5345228633399288</v>
       </c>
       <c r="AJ169">
         <v>0</v>
@@ -21130,7 +21292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:37">
+    <row r="170" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>391</v>
       </c>
@@ -21225,7 +21387,7 @@
         <v>642</v>
       </c>
       <c r="AF170">
-        <v>14.58333333333334</v>
+        <v>14.583333333333339</v>
       </c>
       <c r="AG170">
         <v>16.875</v>
@@ -21234,7 +21396,7 @@
         <v>16.61472671369075</v>
       </c>
       <c r="AI170">
-        <v>3.32294534273815</v>
+        <v>3.3229453427381501</v>
       </c>
       <c r="AJ170">
         <v>0</v>
@@ -21243,7 +21405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:37">
+    <row r="171" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>393</v>
       </c>
@@ -21347,7 +21509,7 @@
         <v>14.7078132997946</v>
       </c>
       <c r="AI171">
-        <v>2.941562710698639</v>
+        <v>2.9415627106986388</v>
       </c>
       <c r="AJ171">
         <v>0</v>
@@ -21356,39 +21518,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:37">
+    <row r="172" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>395</v>
+        <v>93</v>
       </c>
       <c r="B172" t="s">
-        <v>396</v>
+        <v>94</v>
       </c>
       <c r="C172" t="s">
-        <v>396</v>
+        <v>93</v>
       </c>
       <c r="D172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J172">
         <v>0</v>
       </c>
       <c r="K172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L172">
         <v>0</v>
@@ -21436,7 +21598,7 @@
         <v>0</v>
       </c>
       <c r="AA172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB172">
         <v>0</v>
@@ -21445,31 +21607,31 @@
         <v>0</v>
       </c>
       <c r="AD172">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AE172">
-        <v>658</v>
+        <v>62</v>
       </c>
       <c r="AF172">
-        <v>19.90566763669936</v>
+        <v>17.692307692307701</v>
       </c>
       <c r="AG172">
-        <v>20.11330077465268</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="AH172">
-        <v>19.01808770186017</v>
+        <v>18.13588106929992</v>
       </c>
       <c r="AI172">
-        <v>4.181377628920928</v>
+        <v>3.6271762138599839</v>
       </c>
       <c r="AJ172">
         <v>1</v>
       </c>
       <c r="AK172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:37">
+    <row r="173" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>212</v>
       </c>
@@ -21564,16 +21726,16 @@
         <v>661</v>
       </c>
       <c r="AF173">
-        <v>21.61938981964897</v>
+        <v>21.619389819648969</v>
       </c>
       <c r="AG173">
         <v>21.4098392053921</v>
       </c>
       <c r="AH173">
-        <v>20.46745917065781</v>
+        <v>20.467459170657811</v>
       </c>
       <c r="AI173">
-        <v>3.830292858087278</v>
+        <v>3.8302928580872782</v>
       </c>
       <c r="AJ173">
         <v>0</v>
@@ -21582,7 +21744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:37">
+    <row r="174" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>398</v>
       </c>
@@ -21683,7 +21845,7 @@
         <v>18.05561124896332</v>
       </c>
       <c r="AH174">
-        <v>18.27425504959343</v>
+        <v>18.274255049593432</v>
       </c>
       <c r="AI174">
         <v>3.604669195747217</v>
@@ -21695,7 +21857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:37">
+    <row r="175" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>401</v>
       </c>
@@ -21796,10 +21958,10 @@
         <v>19.76073059328542</v>
       </c>
       <c r="AH175">
-        <v>15.49785831748792</v>
+        <v>15.497858317487919</v>
       </c>
       <c r="AI175">
-        <v>3.18831806588483</v>
+        <v>3.1883180658848298</v>
       </c>
       <c r="AJ175">
         <v>0</v>
@@ -21808,7 +21970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:37">
+    <row r="176" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>403</v>
       </c>
@@ -21897,7 +22059,7 @@
         <v>0</v>
       </c>
       <c r="AD176">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE176">
         <v>667</v>
@@ -21909,10 +22071,10 @@
         <v>13.63636363636363</v>
       </c>
       <c r="AH176">
-        <v>13.7200273041538</v>
+        <v>13.720027304153801</v>
       </c>
       <c r="AI176">
-        <v>2.744005460830759</v>
+        <v>2.7440054608307589</v>
       </c>
       <c r="AJ176">
         <v>0</v>
@@ -21921,7 +22083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:37">
+    <row r="177" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>405</v>
       </c>
@@ -22010,13 +22172,13 @@
         <v>0</v>
       </c>
       <c r="AD177">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AE177">
         <v>669</v>
       </c>
       <c r="AF177">
-        <v>10.8695652173913</v>
+        <v>10.869565217391299</v>
       </c>
       <c r="AG177">
         <v>11.93207620165931</v>
@@ -22034,7 +22196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:37">
+    <row r="178" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>407</v>
       </c>
@@ -22129,16 +22291,16 @@
         <v>672</v>
       </c>
       <c r="AF178">
-        <v>24.37500000000001</v>
+        <v>24.375000000000011</v>
       </c>
       <c r="AG178">
         <v>20.28549812552944</v>
       </c>
       <c r="AH178">
-        <v>21.41171984112295</v>
+        <v>21.411719841122949</v>
       </c>
       <c r="AI178">
-        <v>4.282344641221249</v>
+        <v>4.2823446412212487</v>
       </c>
       <c r="AJ178">
         <v>0</v>
@@ -22147,7 +22309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:37">
+    <row r="179" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>409</v>
       </c>
@@ -22242,16 +22404,16 @@
         <v>675</v>
       </c>
       <c r="AF179">
-        <v>15.54438437909278</v>
+        <v>15.544384379092779</v>
       </c>
       <c r="AG179">
         <v>16.58350437363649</v>
       </c>
       <c r="AH179">
-        <v>15.23010852542179</v>
+        <v>15.230108525421789</v>
       </c>
       <c r="AI179">
-        <v>3.486263177733776</v>
+        <v>3.4862631777337758</v>
       </c>
       <c r="AJ179">
         <v>0</v>
@@ -22260,24 +22422,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:37">
+    <row r="180" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>411</v>
+        <v>114</v>
       </c>
       <c r="B180" t="s">
-        <v>412</v>
+        <v>115</v>
       </c>
       <c r="C180" t="s">
-        <v>412</v>
+        <v>115</v>
       </c>
       <c r="D180" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -22286,7 +22448,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -22298,7 +22460,7 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -22340,7 +22502,7 @@
         <v>0</v>
       </c>
       <c r="AA180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB180">
         <v>0</v>
@@ -22349,31 +22511,31 @@
         <v>0</v>
       </c>
       <c r="AD180">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="AE180">
-        <v>676</v>
+        <v>104</v>
       </c>
       <c r="AF180">
-        <v>15.55032703332092</v>
+        <v>12</v>
       </c>
       <c r="AG180">
-        <v>18.05555555555556</v>
+        <v>12.117647058823531</v>
       </c>
       <c r="AH180">
-        <v>15.86908930559829</v>
+        <v>12.842745967389961</v>
       </c>
       <c r="AI180">
-        <v>2.783702072257154</v>
+        <v>3.2106864918474889</v>
       </c>
       <c r="AJ180">
         <v>1</v>
       </c>
       <c r="AK180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:37">
+    <row r="181" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>413</v>
       </c>
@@ -22462,7 +22624,7 @@
         <v>0</v>
       </c>
       <c r="AD181">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AE181">
         <v>679</v>
@@ -22474,10 +22636,10 @@
         <v>17.45712521375177</v>
       </c>
       <c r="AH181">
-        <v>17.6837489864162</v>
+        <v>17.683748986416202</v>
       </c>
       <c r="AI181">
-        <v>3.521965920645248</v>
+        <v>3.5219659206452478</v>
       </c>
       <c r="AJ181">
         <v>0</v>
@@ -22486,7 +22648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:37">
+    <row r="182" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>416</v>
       </c>
@@ -22584,13 +22746,13 @@
         <v>18.28125</v>
       </c>
       <c r="AG182">
-        <v>19.61074285020323</v>
+        <v>19.610742850203231</v>
       </c>
       <c r="AH182">
         <v>18.43281480169269</v>
       </c>
       <c r="AI182">
-        <v>3.686541169558542</v>
+        <v>3.6865411695585419</v>
       </c>
       <c r="AJ182">
         <v>0</v>
@@ -22599,7 +22761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:37">
+    <row r="183" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>418</v>
       </c>
@@ -22712,33 +22874,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:37">
+    <row r="184" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B184" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C184" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D184" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -22792,40 +22954,40 @@
         <v>0</v>
       </c>
       <c r="AA184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC184">
         <v>0</v>
       </c>
       <c r="AD184">
-        <v>7.6</v>
+        <v>5.2</v>
       </c>
       <c r="AE184">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="AF184">
-        <v>22.48120300751882</v>
+        <v>15.55032703332092</v>
       </c>
       <c r="AG184">
-        <v>21.54001006174422</v>
+        <v>18.055555555555561</v>
       </c>
       <c r="AH184">
-        <v>21.39982611383775</v>
+        <v>15.86908930559829</v>
       </c>
       <c r="AI184">
-        <v>4.279965222800604</v>
+        <v>2.7837020722571539</v>
       </c>
       <c r="AJ184">
         <v>1</v>
       </c>
       <c r="AK184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:37">
+    <row r="185" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>422</v>
       </c>
@@ -22914,7 +23076,7 @@
         <v>0</v>
       </c>
       <c r="AD185">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AE185">
         <v>691</v>
@@ -22926,10 +23088,10 @@
         <v>17.39995568531657</v>
       </c>
       <c r="AH185">
-        <v>15.09865399497203</v>
+        <v>15.098653994972031</v>
       </c>
       <c r="AI185">
-        <v>2.846243512806194</v>
+        <v>2.8462435128061938</v>
       </c>
       <c r="AJ185">
         <v>0</v>
@@ -22938,7 +23100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:37">
+    <row r="186" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>424</v>
       </c>
@@ -23039,7 +23201,7 @@
         <v>12</v>
       </c>
       <c r="AH186">
-        <v>10.77084324042153</v>
+        <v>10.770843240421531</v>
       </c>
       <c r="AI186">
         <v>2.154168648084307</v>
@@ -23051,7 +23213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:37">
+    <row r="187" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>79</v>
       </c>
@@ -23164,7 +23326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:37">
+    <row r="188" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>429</v>
       </c>
@@ -23253,22 +23415,22 @@
         <v>0</v>
       </c>
       <c r="AD188">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE188">
         <v>704</v>
       </c>
       <c r="AF188">
-        <v>21.32142072652516</v>
+        <v>21.321420726525162</v>
       </c>
       <c r="AG188">
         <v>17.8125</v>
       </c>
       <c r="AH188">
-        <v>19.00830600106901</v>
+        <v>19.008306001069009</v>
       </c>
       <c r="AI188">
-        <v>3.873937343414669</v>
+        <v>3.8739373434146689</v>
       </c>
       <c r="AJ188">
         <v>0</v>
@@ -23277,7 +23439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:37">
+    <row r="189" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>431</v>
       </c>
@@ -23381,7 +23543,7 @@
         <v>15.05079355151169</v>
       </c>
       <c r="AI189">
-        <v>2.993063632041095</v>
+        <v>2.9930636320410948</v>
       </c>
       <c r="AJ189">
         <v>0</v>
@@ -23390,7 +23552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:37">
+    <row r="190" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>212</v>
       </c>
@@ -23488,13 +23650,13 @@
         <v>18.90934715180741</v>
       </c>
       <c r="AG190">
-        <v>16.73611111111111</v>
+        <v>16.736111111111111</v>
       </c>
       <c r="AH190">
-        <v>17.31987762836703</v>
+        <v>17.319877628367031</v>
       </c>
       <c r="AI190">
-        <v>3.306211491079904</v>
+        <v>3.3062114910799041</v>
       </c>
       <c r="AJ190">
         <v>0</v>
@@ -23503,7 +23665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:37">
+    <row r="191" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>434</v>
       </c>
@@ -23601,10 +23763,10 @@
         <v>17.5</v>
       </c>
       <c r="AG191">
-        <v>12.85714285714286</v>
+        <v>12.857142857142859</v>
       </c>
       <c r="AH191">
-        <v>14.73393552999828</v>
+        <v>14.733935529998281</v>
       </c>
       <c r="AI191">
         <v>2.946787105999658</v>
@@ -23616,7 +23778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:37">
+    <row r="192" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>436</v>
       </c>
@@ -23720,7 +23882,7 @@
         <v>28.75597886287439</v>
       </c>
       <c r="AI192">
-        <v>5.751195772574878</v>
+        <v>5.7511957725748779</v>
       </c>
       <c r="AJ192">
         <v>0</v>
@@ -23729,7 +23891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:37">
+    <row r="193" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>439</v>
       </c>
@@ -23818,22 +23980,22 @@
         <v>1</v>
       </c>
       <c r="AD193">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE193">
         <v>732</v>
       </c>
       <c r="AF193">
-        <v>12.62601388417647</v>
+        <v>12.626013884176469</v>
       </c>
       <c r="AG193">
         <v>12.58333333333333</v>
       </c>
       <c r="AH193">
-        <v>18.92790323550142</v>
+        <v>18.927903235501422</v>
       </c>
       <c r="AI193">
-        <v>4.888981602818352</v>
+        <v>4.8889816028183519</v>
       </c>
       <c r="AJ193">
         <v>0</v>
@@ -23842,7 +24004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:37">
+    <row r="194" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>398</v>
       </c>
@@ -23943,10 +24105,10 @@
         <v>14.375</v>
       </c>
       <c r="AH194">
-        <v>24.74340692317612</v>
+        <v>0</v>
       </c>
       <c r="AI194">
-        <v>5.147024227469776</v>
+        <v>0</v>
       </c>
       <c r="AJ194">
         <v>0</v>
@@ -23955,7 +24117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:37">
+    <row r="195" spans="1:37" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>442</v>
       </c>
@@ -24059,7 +24221,7 @@
         <v>28.25087920351902</v>
       </c>
       <c r="AI195">
-        <v>6.049563670558756</v>
+        <v>6.0495636705587561</v>
       </c>
       <c r="AJ195">
         <v>0</v>
@@ -24068,18 +24230,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:37">
+    <row r="196" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="B196" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="C196" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="D196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -24088,103 +24250,826 @@
         <v>0</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="s">
+        <v>29</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <v>0</v>
+      </c>
+      <c r="S196">
+        <v>0</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+      <c r="U196">
+        <v>0</v>
+      </c>
+      <c r="V196">
+        <v>0</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+      <c r="AB196">
+        <v>1</v>
+      </c>
+      <c r="AC196">
+        <v>0</v>
+      </c>
+      <c r="AD196">
+        <v>7.6</v>
+      </c>
+      <c r="AE196">
+        <v>689</v>
+      </c>
+      <c r="AF196">
+        <v>22.481203007518818</v>
+      </c>
+      <c r="AG196">
+        <v>21.540010061744219</v>
+      </c>
+      <c r="AH196">
+        <f>21.3998261138378*0.5</f>
+        <v>10.6999130569189</v>
+      </c>
+      <c r="AI196">
+        <f>4.2799652228006*0.5</f>
+        <v>2.1399826114003</v>
+      </c>
+      <c r="AJ196">
+        <v>1</v>
+      </c>
+      <c r="AK196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:37" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="198" spans="1:37" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="199" spans="1:37" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="200" spans="1:37" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="201" spans="1:37" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="202" spans="1:37" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="203" spans="1:37" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="204" spans="1:37" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="205" spans="1:37" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="206" spans="1:37" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="207" spans="1:37" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="208" spans="1:37" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="287" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="288" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="289" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="290" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="291" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="292" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="293" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="294" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="295" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="296" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="297" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="298" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="299" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="300" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="301" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="302" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="303" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="304" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="305" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="306" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="307" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="308" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="309" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="310" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="311" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="312" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="313" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="314" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="315" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="316" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="317" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="318" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="319" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="320" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="321" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="322" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="323" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="324" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="325" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="326" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="327" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="328" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="329" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="330" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="331" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="332" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="333" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="334" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="335" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="336" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="337" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="338" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="339" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="340" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="341" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="342" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="343" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="344" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="345" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="346" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="347" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="348" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="349" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="350" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="351" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="352" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="353" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="354" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="355" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="356" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="357" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="358" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="359" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="360" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="361" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="362" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="363" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="364" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="365" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="366" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="367" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="368" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="369" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="370" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="371" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="372" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="373" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="374" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="375" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="376" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="377" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="378" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="379" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="380" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="381" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="382" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="383" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="384" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="385" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="386" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="387" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="388" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="389" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="390" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="391" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="392" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="393" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="394" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="395" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="396" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="397" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="398" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="399" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="400" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="401" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="402" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="403" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="404" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="405" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="406" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="407" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="408" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="409" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="410" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="411" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="412" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="413" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="414" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="415" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="416" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="417" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="418" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="419" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="420" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="421" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="422" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="423" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="424" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="425" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="426" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="427" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="428" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="429" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="430" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="431" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="432" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="433" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="434" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="435" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="436" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="437" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="438" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="439" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="440" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="441" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="442" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="443" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="444" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="445" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="446" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="447" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="448" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="449" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="450" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="451" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="452" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="453" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="454" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="455" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="456" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="457" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="458" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="459" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="460" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="461" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="462" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="463" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="464" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="465" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="466" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="467" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="468" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="469" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="470" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="471" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="472" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="473" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="474" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="475" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="476" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="477" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="478" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="479" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="480" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="481" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="482" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="483" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="484" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="485" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="486" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="487" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="488" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="489" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="490" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="491" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="492" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="493" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="494" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="495" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="496" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="497" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="498" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="499" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="500" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="501" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="502" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="503" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="504" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="505" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="506" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="507" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="508" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="509" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="510" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="511" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="512" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="513" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="514" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="515" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="516" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="517" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="518" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="519" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="520" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="521" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="522" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="523" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="524" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="525" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="526" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="527" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="528" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="529" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="530" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="531" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="532" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="533" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="534" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="535" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="536" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="537" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="538" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="539" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="540" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="541" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="542" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="543" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="544" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="545" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="546" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="547" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="548" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="549" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="550" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="551" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="552" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="553" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="554" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="555" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="556" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="557" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="558" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="559" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="560" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="561" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="562" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="563" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="564" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="565" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="566" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="567" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="568" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="569" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="570" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="571" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="572" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="573" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="574" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="575" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="576" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="577" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="578" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="579" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="580" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="581" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="582" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="583" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="584" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="585" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="586" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="587" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="588" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="589" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="590" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="591" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="592" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="593" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="594" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="595" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="596" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="597" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="598" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="599" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="600" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="601" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="602" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="603" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="604" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="605" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="606" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="607" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="608" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="609" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="610" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="611" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="612" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="613" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="614" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="615" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="616" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="617" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="618" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="619" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="620" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="621" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="622" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="623" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="624" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="625" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="626" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="627" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="628" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="629" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="630" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="631" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="632" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="633" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="634" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="635" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="636" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="637" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="638" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="639" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="640" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="641" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="642" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="643" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="644" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="645" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="646" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="647" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="648" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="649" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="650" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="651" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="652" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="653" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="654" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="655" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="656" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="657" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="658" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="659" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="660" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="661" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="662" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="663" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="664" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="665" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="666" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="667" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="668" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="669" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="670" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="671" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="672" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="673" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="674" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="675" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="676" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="677" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="678" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="679" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="680" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="681" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="682" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="683" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="684" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="685" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="686" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="687" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="688" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="689" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="690" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="691" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="692" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="693" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="694" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="695" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="696" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="697" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="698" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="699" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="700" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="701" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="702" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="703" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="704" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="705" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="706" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="707" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="708" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="709" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="710" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="711" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="712" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="713" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="714" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="715" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="716" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="717" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="718" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="719" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="720" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="721" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="722" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="723" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="724" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="725" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="726" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="727" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="728" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="729" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="730" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="731" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="732" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="733" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="734" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="735" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="736" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="737" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="738" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="739" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="740" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="741" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="742" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="743" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="744" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="745" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="746" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="747" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="748" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048550" cm="1">
+        <f t="array" ref="XFD1048550">solver_pre</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048551" cm="1">
+        <f t="array" ref="XFD1048551">solver_scl</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048552" cm="1">
+        <f t="array" ref="XFD1048552">solver_rlx</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048553" cm="1">
+        <f t="array" ref="XFD1048553">solver_tol</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048554" cm="1">
+        <f t="array" ref="XFD1048554">solver_cvg</f>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048555" t="e" cm="1">
+        <f t="array" ref="XFD1048555">AREAS(solver_adj1)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048556" cm="1">
+        <f t="array" ref="XFD1048556">solver_ssz</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048557" cm="1">
+        <f t="array" ref="XFD1048557">solver_rsd</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048558" cm="1">
+        <f t="array" ref="XFD1048558">solver_mrt</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048559" cm="1">
+        <f t="array" ref="XFD1048559">solver_mni</f>
         <v>30</v>
       </c>
-      <c r="J196">
-        <v>0</v>
-      </c>
-      <c r="K196">
-        <v>0</v>
-      </c>
-      <c r="L196">
-        <v>0</v>
-      </c>
-      <c r="M196">
-        <v>0</v>
-      </c>
-      <c r="N196">
-        <v>0</v>
-      </c>
-      <c r="O196">
-        <v>0</v>
-      </c>
-      <c r="P196">
-        <v>0</v>
-      </c>
-      <c r="Q196">
-        <v>0</v>
-      </c>
-      <c r="R196">
-        <v>0</v>
-      </c>
-      <c r="S196">
-        <v>0</v>
-      </c>
-      <c r="T196">
-        <v>0</v>
-      </c>
-      <c r="U196">
-        <v>0</v>
-      </c>
-      <c r="V196">
-        <v>0</v>
-      </c>
-      <c r="W196">
-        <v>0</v>
-      </c>
-      <c r="X196">
-        <v>0</v>
-      </c>
-      <c r="Y196">
-        <v>0</v>
-      </c>
-      <c r="Z196">
-        <v>0</v>
-      </c>
-      <c r="AA196">
-        <v>0</v>
-      </c>
-      <c r="AB196">
-        <v>0</v>
-      </c>
-      <c r="AC196">
-        <v>1</v>
-      </c>
-      <c r="AD196">
-        <v>5.5</v>
-      </c>
-      <c r="AE196">
-        <v>741</v>
-      </c>
-      <c r="AF196">
-        <v>19.15387333903788</v>
-      </c>
-      <c r="AG196">
-        <v>13.04347826086957</v>
-      </c>
-      <c r="AH196">
-        <v>24.01137915345398</v>
-      </c>
-      <c r="AI196">
-        <v>4.802275830690795</v>
-      </c>
-      <c r="AJ196">
-        <v>1</v>
-      </c>
-      <c r="AK196">
-        <v>0</v>
+    </row>
+    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048560" cm="1">
+        <f t="array" ref="XFD1048560">solver_rbv</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048561" cm="1">
+        <f t="array" ref="XFD1048561">solver_neg</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048562" t="e" cm="1">
+        <f t="array" ref="XFD1048562">solver_ntr</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048563" t="e" cm="1">
+        <f t="array" ref="XFD1048563">solver_acc</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048564" t="e" cm="1">
+        <f t="array" ref="XFD1048564">solver_res</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048565" t="e" cm="1">
+        <f t="array" ref="XFD1048565">solver_ars</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048566" t="e" cm="1">
+        <f t="array" ref="XFD1048566">solver_sta</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048567" t="e" cm="1">
+        <f t="array" ref="XFD1048567">solver_met</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048568" t="e" cm="1">
+        <f t="array" ref="XFD1048568">solver_soc</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048569" t="e" cm="1">
+        <f t="array" ref="XFD1048569">solver_lpt</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048570" t="e" cm="1">
+        <f t="array" ref="XFD1048570">solver_lpp</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048571" t="e" cm="1">
+        <f t="array" ref="XFD1048571">solver_gap</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048572" t="e" cm="1">
+        <f t="array" ref="XFD1048572">solver_ips</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048573" t="e" cm="1">
+        <f t="array" ref="XFD1048573">solver_fea</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048574" t="e" cm="1">
+        <f t="array" ref="XFD1048574">solver_ipi</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.35">
+      <c r="XFD1048575" t="e" cm="1">
+        <f t="array" ref="XFD1048575">solver_ipd</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{E2D45E99-FABD-4D3E-8CFC-5D538FB9023D}">
+          <xm:f>Sheet1!1:1048576</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{BC289AB9-F741-4A66-BAA7-B5A01498C2C3}">
+          <xm:f>Sheet1!XFD1048550:XFD1048575</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
 </worksheet>
 </file>